--- a/docs/example_spreadsheet.xlsx
+++ b/docs/example_spreadsheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA018A78-26B4-8B4A-91D2-F06ECFC956F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1AB692AE-C503-DA4E-90C6-B3BC43C65791}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24560" yWindow="500" windowWidth="33820" windowHeight="26040" firstSheet="11" activeTab="20" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="53480" yWindow="500" windowWidth="44940" windowHeight="26040" firstSheet="2" activeTab="16" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -22,18 +22,21 @@
     <sheet name="studyDesignEligibilityCriteria" sheetId="19" r:id="rId7"/>
     <sheet name="dictionaries" sheetId="23" r:id="rId8"/>
     <sheet name="mainTimeline" sheetId="1" r:id="rId9"/>
-    <sheet name="studyDesignTiming" sheetId="25" r:id="rId10"/>
-    <sheet name="studyDesignActivities" sheetId="16" r:id="rId11"/>
-    <sheet name="studyDesignII" sheetId="6" r:id="rId12"/>
-    <sheet name="studyDesignPopulations" sheetId="7" r:id="rId13"/>
-    <sheet name="studyDesignOE" sheetId="8" r:id="rId14"/>
-    <sheet name="studyDesignEstimands" sheetId="9" r:id="rId15"/>
-    <sheet name="studyDesignProcedures" sheetId="11" r:id="rId16"/>
-    <sheet name="studyDesignEncounters" sheetId="12" r:id="rId17"/>
-    <sheet name="studyDesignElements" sheetId="13" r:id="rId18"/>
-    <sheet name="studyDesignContent" sheetId="17" r:id="rId19"/>
-    <sheet name="configuration" sheetId="10" r:id="rId20"/>
-    <sheet name="usefulInfo" sheetId="26" r:id="rId21"/>
+    <sheet name="Sheet1" sheetId="28" r:id="rId10"/>
+    <sheet name="studyDesignTiming" sheetId="25" r:id="rId11"/>
+    <sheet name="studyDesignActivities" sheetId="16" r:id="rId12"/>
+    <sheet name="studyDesignIndications" sheetId="6" r:id="rId13"/>
+    <sheet name="studyDesignInterventions" sheetId="27" r:id="rId14"/>
+    <sheet name="studyDesignPopulations" sheetId="7" r:id="rId15"/>
+    <sheet name="studyDesignOE" sheetId="8" r:id="rId16"/>
+    <sheet name="Sheet2" sheetId="29" r:id="rId17"/>
+    <sheet name="studyDesignEstimands" sheetId="9" r:id="rId18"/>
+    <sheet name="studyDesignProcedures" sheetId="11" r:id="rId19"/>
+    <sheet name="studyDesignEncounters" sheetId="12" r:id="rId20"/>
+    <sheet name="studyDesignElements" sheetId="13" r:id="rId21"/>
+    <sheet name="studyDesignContent" sheetId="17" r:id="rId22"/>
+    <sheet name="configuration" sheetId="10" r:id="rId23"/>
+    <sheet name="usefulInfo" sheetId="26" r:id="rId24"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -56,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="678">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="979" uniqueCount="726">
   <si>
     <t>Screening</t>
   </si>
@@ -193,60 +196,27 @@
     <t>codes</t>
   </si>
   <si>
-    <t>An indication</t>
-  </si>
-  <si>
     <t>SNOMED:12345=Indication1</t>
   </si>
   <si>
-    <t>An intervention</t>
-  </si>
-  <si>
-    <t>ICD-10: X = Y, SNOMED: A=B</t>
-  </si>
-  <si>
     <t>SNOMED:345678=Indication2</t>
   </si>
   <si>
-    <t>ICD-10: DD=CC, SNOMED: A=B</t>
-  </si>
-  <si>
     <t>populationDescription</t>
   </si>
   <si>
-    <t>plannedNumberOfParticipants</t>
-  </si>
-  <si>
-    <t>plannedMinimumAgeOfParticipants</t>
-  </si>
-  <si>
     <t>18 years</t>
   </si>
   <si>
-    <t>40 years</t>
-  </si>
-  <si>
     <t>plannedSexOfParticipants</t>
   </si>
   <si>
     <t>BOTH</t>
   </si>
   <si>
-    <t>60 years</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
     <t>70 years</t>
   </si>
   <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>plannedMaximumAgeOfParticipants</t>
-  </si>
-  <si>
     <t>objectiveDescription</t>
   </si>
   <si>
@@ -1498,9 +1468,6 @@
     <t>study_version</t>
   </si>
   <si>
-    <t>Approval</t>
-  </si>
-  <si>
     <t>Design approval date</t>
   </si>
   <si>
@@ -1645,24 +1612,6 @@
     <t>Subjects shall be between [min_age] and [max_age]</t>
   </si>
   <si>
-    <t>POP2</t>
-  </si>
-  <si>
-    <t>POP3</t>
-  </si>
-  <si>
-    <t>Population One, low age group</t>
-  </si>
-  <si>
-    <t>Population two, medium age group</t>
-  </si>
-  <si>
-    <t>Population three, old age group</t>
-  </si>
-  <si>
-    <t>region:asia</t>
-  </si>
-  <si>
     <t>02</t>
   </si>
   <si>
@@ -1717,12 +1666,6 @@
     <t>Something  Else</t>
   </si>
   <si>
-    <t>Indication</t>
-  </si>
-  <si>
-    <t>Intervention</t>
-  </si>
-  <si>
     <t>Label</t>
   </si>
   <si>
@@ -2090,13 +2033,217 @@
   </si>
   <si>
     <t>On line tool (requires username and password)</t>
+  </si>
+  <si>
+    <t>EU</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>WHO</t>
+  </si>
+  <si>
+    <t>EU CT</t>
+  </si>
+  <si>
+    <t>FDA</t>
+  </si>
+  <si>
+    <t>Regulatory Agency</t>
+  </si>
+  <si>
+    <t>European Union</t>
+  </si>
+  <si>
+    <t>Food &amp; Drug Administration</t>
+  </si>
+  <si>
+    <t>World Health Organisation</t>
+  </si>
+  <si>
+    <t>UN</t>
+  </si>
+  <si>
+    <t>EU12345</t>
+  </si>
+  <si>
+    <t>IND12345</t>
+  </si>
+  <si>
+    <t>WHO12345</t>
+  </si>
+  <si>
+    <t>TIM6</t>
+  </si>
+  <si>
+    <t>Indication 1</t>
+  </si>
+  <si>
+    <t>Indication 2</t>
+  </si>
+  <si>
+    <t>Indication One</t>
+  </si>
+  <si>
+    <t>Indication Two</t>
+  </si>
+  <si>
+    <t>role</t>
+  </si>
+  <si>
+    <t>productDesignation</t>
+  </si>
+  <si>
+    <t>minimumResponseDuration</t>
+  </si>
+  <si>
+    <t>administrationRoute</t>
+  </si>
+  <si>
+    <t>administrationDose</t>
+  </si>
+  <si>
+    <t>administrationFrequency</t>
+  </si>
+  <si>
+    <t>administrationName</t>
+  </si>
+  <si>
+    <t>administrationDescription</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  administrationLabel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  administrationDurationDescription</t>
+  </si>
+  <si>
+    <t>administrationDurationWillVary</t>
+  </si>
+  <si>
+    <t>administrationDurationWillVaryReason</t>
+  </si>
+  <si>
+    <t>administrationDurationQuantity</t>
+  </si>
+  <si>
+    <t>Int Desc 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Int Label 1</t>
+  </si>
+  <si>
+    <t>SPONSOR: A=B</t>
+  </si>
+  <si>
+    <t>FDA: A=B</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1 Day</t>
+  </si>
+  <si>
+    <t>M11: role1=role1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> M11: desig1=desig_1</t>
+  </si>
+  <si>
+    <t>Admin 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Admin Desc 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Admin Label 1</t>
+  </si>
+  <si>
+    <t>12 mg</t>
+  </si>
+  <si>
+    <t>Dur desc 1</t>
+  </si>
+  <si>
+    <t>Will vary becuase we say so</t>
+  </si>
+  <si>
+    <t>14 %</t>
+  </si>
+  <si>
+    <t>pharmacologicalClass</t>
+  </si>
+  <si>
+    <t>DENTAL</t>
+  </si>
+  <si>
+    <t>10 DAYS PER MONTH</t>
+  </si>
+  <si>
+    <t>DRUG</t>
+  </si>
+  <si>
+    <t>Int Desc 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Int Label 2</t>
+  </si>
+  <si>
+    <t>M11: role2=role2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> M11: desig2=desig_2</t>
+  </si>
+  <si>
+    <t>Admin 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Admin Desc 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Admin Label 2</t>
+  </si>
+  <si>
+    <t>Dur desc 2</t>
+  </si>
+  <si>
+    <t>level</t>
+  </si>
+  <si>
+    <t>plannedCompletionNumber</t>
+  </si>
+  <si>
+    <t>plannedEnrollmentNumber</t>
+  </si>
+  <si>
+    <t>plannedMinimumAge</t>
+  </si>
+  <si>
+    <t>plannedMaximumAge</t>
+  </si>
+  <si>
+    <t>Main</t>
+  </si>
+  <si>
+    <t>Cohort</t>
+  </si>
+  <si>
+    <t>COHORT1</t>
+  </si>
+  <si>
+    <t>30 years</t>
+  </si>
+  <si>
+    <t>COHORT2</t>
+  </si>
+  <si>
+    <t>31 years</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2157,6 +2304,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF444444"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -2219,7 +2372,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2297,25 +2450,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2631,10 +2786,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53AA772F-4124-4842-BA10-D27E5C5CE960}">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2650,10 +2805,10 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>489</v>
+        <v>477</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -2690,63 +2845,63 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" s="16" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="16" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="16" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="16" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="16" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="B13" s="11" t="s">
         <v>13</v>
@@ -2754,102 +2909,79 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="16" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="16" t="s">
-        <v>476</v>
+        <v>465</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="C16" s="16" t="s">
         <v>43</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="E16" s="19" t="s">
         <v>42</v>
       </c>
       <c r="F16" s="19" t="s">
+        <v>467</v>
+      </c>
+      <c r="G16" s="16" t="s">
         <v>478</v>
-      </c>
-      <c r="G16" s="16" t="s">
-        <v>490</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
-        <v>479</v>
+        <v>468</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>480</v>
+        <v>470</v>
       </c>
       <c r="C17" t="s">
-        <v>481</v>
+        <v>469</v>
       </c>
       <c r="D17" t="s">
-        <v>482</v>
+        <v>470</v>
       </c>
       <c r="E17" t="s">
-        <v>487</v>
+        <v>475</v>
       </c>
       <c r="F17" s="24">
-        <v>44927</v>
+        <v>44911</v>
       </c>
       <c r="G17" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
-        <v>484</v>
+        <v>472</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="C18" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="D18" t="s">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="E18" t="s">
-        <v>488</v>
+        <v>476</v>
       </c>
       <c r="F18" s="24">
         <v>44927</v>
       </c>
       <c r="G18" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="10" t="s">
-        <v>484</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>480</v>
-      </c>
-      <c r="C19" t="s">
-        <v>485</v>
-      </c>
-      <c r="D19" t="s">
-        <v>486</v>
-      </c>
-      <c r="E19" t="s">
-        <v>488</v>
-      </c>
-      <c r="F19" s="24">
-        <v>44958</v>
-      </c>
-      <c r="G19" t="s">
-        <v>534</v>
+        <v>471</v>
       </c>
     </row>
   </sheetData>
@@ -2858,10 +2990,24 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B76FC554-66AC-E24E-8285-2C16201A5A8B}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A0B1F19-81B2-DE4D-B058-6D33A4EF2886}">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0"/>
+    <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2874,196 +3020,196 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="B1" s="19" t="s">
         <v>43</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="D1" s="19" t="s">
         <v>42</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>584</v>
+        <v>564</v>
       </c>
       <c r="F1" s="19" t="s">
-        <v>585</v>
+        <v>565</v>
       </c>
       <c r="G1" s="19" t="s">
-        <v>586</v>
+        <v>566</v>
       </c>
       <c r="H1" s="19" t="s">
-        <v>587</v>
+        <v>567</v>
       </c>
       <c r="I1" s="19" t="s">
-        <v>588</v>
+        <v>568</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>589</v>
+        <v>569</v>
       </c>
       <c r="B2" t="s">
-        <v>590</v>
+        <v>570</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>591</v>
+        <v>571</v>
       </c>
       <c r="E2" t="s">
-        <v>567</v>
+        <v>547</v>
       </c>
       <c r="F2" t="s">
-        <v>568</v>
+        <v>548</v>
       </c>
       <c r="G2" t="s">
-        <v>592</v>
+        <v>572</v>
       </c>
       <c r="H2" t="s">
-        <v>593</v>
+        <v>573</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>594</v>
+        <v>574</v>
       </c>
       <c r="B3" t="s">
-        <v>595</v>
+        <v>575</v>
       </c>
       <c r="C3" t="s">
-        <v>596</v>
+        <v>576</v>
       </c>
       <c r="D3" t="s">
-        <v>591</v>
+        <v>571</v>
       </c>
       <c r="E3" t="s">
-        <v>568</v>
+        <v>548</v>
       </c>
       <c r="F3" t="s">
-        <v>569</v>
+        <v>549</v>
       </c>
       <c r="G3" t="s">
         <v>7</v>
       </c>
       <c r="H3" t="s">
-        <v>593</v>
+        <v>573</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>597</v>
+        <v>577</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>598</v>
+        <v>578</v>
       </c>
       <c r="B4" t="s">
-        <v>599</v>
+        <v>579</v>
       </c>
       <c r="C4" t="s">
-        <v>574</v>
+        <v>554</v>
       </c>
       <c r="D4" t="s">
-        <v>600</v>
+        <v>580</v>
       </c>
       <c r="E4" t="s">
-        <v>569</v>
+        <v>549</v>
       </c>
       <c r="F4" t="s">
-        <v>569</v>
+        <v>549</v>
       </c>
       <c r="G4" t="s">
-        <v>601</v>
+        <v>581</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>602</v>
+        <v>582</v>
       </c>
       <c r="B5" t="s">
-        <v>603</v>
+        <v>583</v>
       </c>
       <c r="C5" t="s">
-        <v>575</v>
+        <v>555</v>
       </c>
       <c r="D5" t="s">
-        <v>604</v>
+        <v>584</v>
       </c>
       <c r="E5" t="s">
-        <v>570</v>
+        <v>550</v>
       </c>
       <c r="F5" t="s">
-        <v>569</v>
+        <v>549</v>
       </c>
       <c r="G5" t="s">
-        <v>605</v>
+        <v>585</v>
       </c>
       <c r="H5" t="s">
-        <v>593</v>
+        <v>573</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>606</v>
+        <v>586</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>602</v>
+        <v>587</v>
       </c>
       <c r="B6" t="s">
-        <v>617</v>
+        <v>597</v>
       </c>
       <c r="C6" t="s">
-        <v>610</v>
+        <v>590</v>
       </c>
       <c r="D6" t="s">
-        <v>604</v>
+        <v>584</v>
       </c>
       <c r="E6" t="s">
-        <v>611</v>
+        <v>591</v>
       </c>
       <c r="F6" t="s">
-        <v>569</v>
+        <v>549</v>
       </c>
       <c r="G6" t="s">
-        <v>618</v>
+        <v>598</v>
       </c>
       <c r="H6" t="s">
-        <v>593</v>
+        <v>573</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>606</v>
+        <v>586</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>607</v>
+        <v>671</v>
       </c>
       <c r="B7" t="s">
-        <v>608</v>
+        <v>588</v>
       </c>
       <c r="C7" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="D7" t="s">
-        <v>604</v>
+        <v>584</v>
       </c>
       <c r="E7" t="s">
-        <v>572</v>
+        <v>552</v>
       </c>
       <c r="F7" t="s">
-        <v>569</v>
+        <v>549</v>
       </c>
       <c r="G7" t="s">
-        <v>619</v>
+        <v>599</v>
       </c>
       <c r="H7" t="s">
-        <v>593</v>
+        <v>573</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>609</v>
+        <v>589</v>
       </c>
     </row>
   </sheetData>
@@ -3071,7 +3217,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA8389B3-D1BB-1047-BA06-7E793B938DBA}">
   <dimension ref="A1:E6"/>
   <sheetViews>
@@ -3091,19 +3237,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="B1" s="19" t="s">
         <v>43</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="D1" s="25" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -3111,7 +3257,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>5</v>
@@ -3119,138 +3265,47 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>627</v>
+        <v>607</v>
       </c>
       <c r="B3" t="s">
-        <v>628</v>
+        <v>608</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>627</v>
+        <v>607</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>632</v>
+        <v>612</v>
       </c>
       <c r="B4" t="s">
-        <v>629</v>
+        <v>609</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>630</v>
+        <v>610</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="E4" t="s">
-        <v>566</v>
+        <v>546</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>623</v>
+        <v>603</v>
       </c>
       <c r="B5" t="s">
-        <v>625</v>
+        <v>605</v>
       </c>
       <c r="C5" t="s">
-        <v>626</v>
+        <v>606</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E548DFC1-EB0E-374B-95D2-A04104B745FB}">
-  <dimension ref="A1:D5"/>
-  <sheetViews>
-    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="8.6640625" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" customWidth="1"/>
-    <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="31.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
-        <v>406</v>
-      </c>
-      <c r="B1" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="D1" s="19" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B2" t="s">
-        <v>553</v>
-      </c>
-      <c r="C2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B3" t="s">
-        <v>553</v>
-      </c>
-      <c r="C3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>77</v>
-      </c>
-      <c r="B4" t="s">
-        <v>554</v>
-      </c>
-      <c r="C4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>79</v>
-      </c>
-      <c r="B5" t="s">
-        <v>554</v>
-      </c>
-      <c r="C5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D5" t="s">
-        <v>50</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3258,102 +3313,60 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C037A932-CB5B-8D43-956E-5F5C367E07FC}">
-  <dimension ref="A1:H4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E548DFC1-EB0E-374B-95D2-A04104B745FB}">
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="31.6640625" customWidth="1"/>
-    <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="32.33203125" customWidth="1"/>
-    <col min="5" max="5" width="31.33203125" customWidth="1"/>
-    <col min="6" max="6" width="26.6640625" customWidth="1"/>
+    <col min="1" max="1" width="8.6640625" customWidth="1"/>
+    <col min="2" max="3" width="19" customWidth="1"/>
+    <col min="4" max="4" width="31.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>52</v>
+        <v>466</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="E1" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="F1" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>522</v>
+        <v>65</v>
       </c>
       <c r="B2" t="s">
-        <v>531</v>
-      </c>
-      <c r="C2">
-        <v>100</v>
-      </c>
-      <c r="D2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="F2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+        <v>674</v>
+      </c>
+      <c r="C2" t="s">
+        <v>672</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>529</v>
+        <v>67</v>
       </c>
       <c r="B3" t="s">
-        <v>532</v>
-      </c>
-      <c r="C3">
-        <v>20</v>
-      </c>
-      <c r="D3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="F3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>530</v>
-      </c>
-      <c r="B4" t="s">
-        <v>533</v>
-      </c>
-      <c r="C4">
-        <v>20</v>
-      </c>
-      <c r="D4" t="s">
-        <v>54</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="F4" t="s">
-        <v>61</v>
+        <v>675</v>
+      </c>
+      <c r="C3" t="s">
+        <v>673</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -3362,6 +3375,319 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86117B3B-3975-3B4E-8ED4-B6979F031A31}">
+  <dimension ref="A1:S3"/>
+  <sheetViews>
+    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="7.6640625" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" customWidth="1"/>
+    <col min="3" max="3" width="13.5" customWidth="1"/>
+    <col min="4" max="4" width="14.5" customWidth="1"/>
+    <col min="5" max="5" width="16.83203125" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" customWidth="1"/>
+    <col min="7" max="7" width="23.5" customWidth="1"/>
+    <col min="8" max="8" width="21" customWidth="1"/>
+    <col min="9" max="9" width="27.83203125" customWidth="1"/>
+    <col min="10" max="10" width="19.6640625" customWidth="1"/>
+    <col min="11" max="11" width="25.5" customWidth="1"/>
+    <col min="12" max="12" width="19.83203125" customWidth="1"/>
+    <col min="13" max="13" width="19.6640625" customWidth="1"/>
+    <col min="14" max="14" width="18.6640625" customWidth="1"/>
+    <col min="15" max="15" width="22.83203125" customWidth="1"/>
+    <col min="16" max="16" width="33.33203125" customWidth="1"/>
+    <col min="17" max="17" width="29.1640625" customWidth="1"/>
+    <col min="18" max="18" width="34.83203125" customWidth="1"/>
+    <col min="19" max="19" width="29.33203125" customWidth="1"/>
+    <col min="20" max="20" width="27.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A1" s="19" t="s">
+        <v>395</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>466</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>676</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>703</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>677</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>678</v>
+      </c>
+      <c r="J1" s="19" t="s">
+        <v>682</v>
+      </c>
+      <c r="K1" s="19" t="s">
+        <v>683</v>
+      </c>
+      <c r="L1" s="19" t="s">
+        <v>684</v>
+      </c>
+      <c r="M1" s="19" t="s">
+        <v>679</v>
+      </c>
+      <c r="N1" s="19" t="s">
+        <v>680</v>
+      </c>
+      <c r="O1" s="19" t="s">
+        <v>681</v>
+      </c>
+      <c r="P1" s="19" t="s">
+        <v>685</v>
+      </c>
+      <c r="Q1" s="19" t="s">
+        <v>686</v>
+      </c>
+      <c r="R1" s="19" t="s">
+        <v>687</v>
+      </c>
+      <c r="S1" s="19" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" t="s">
+        <v>689</v>
+      </c>
+      <c r="C2" t="s">
+        <v>690</v>
+      </c>
+      <c r="D2" t="s">
+        <v>691</v>
+      </c>
+      <c r="E2" t="s">
+        <v>694</v>
+      </c>
+      <c r="F2" s="34" t="s">
+        <v>706</v>
+      </c>
+      <c r="G2" t="s">
+        <v>692</v>
+      </c>
+      <c r="H2" t="s">
+        <v>695</v>
+      </c>
+      <c r="I2" t="s">
+        <v>693</v>
+      </c>
+      <c r="J2" t="s">
+        <v>696</v>
+      </c>
+      <c r="K2" t="s">
+        <v>697</v>
+      </c>
+      <c r="L2" t="s">
+        <v>698</v>
+      </c>
+      <c r="M2" t="s">
+        <v>704</v>
+      </c>
+      <c r="N2" t="s">
+        <v>699</v>
+      </c>
+      <c r="O2" t="s">
+        <v>705</v>
+      </c>
+      <c r="P2" t="s">
+        <v>700</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>134</v>
+      </c>
+      <c r="R2" t="s">
+        <v>701</v>
+      </c>
+      <c r="S2" s="33" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" t="s">
+        <v>707</v>
+      </c>
+      <c r="C3" t="s">
+        <v>708</v>
+      </c>
+      <c r="D3" t="s">
+        <v>691</v>
+      </c>
+      <c r="E3" t="s">
+        <v>709</v>
+      </c>
+      <c r="F3" s="34" t="s">
+        <v>706</v>
+      </c>
+      <c r="G3" t="s">
+        <v>692</v>
+      </c>
+      <c r="H3" t="s">
+        <v>710</v>
+      </c>
+      <c r="I3" t="s">
+        <v>693</v>
+      </c>
+      <c r="J3" t="s">
+        <v>711</v>
+      </c>
+      <c r="K3" t="s">
+        <v>712</v>
+      </c>
+      <c r="L3" t="s">
+        <v>713</v>
+      </c>
+      <c r="M3" t="s">
+        <v>704</v>
+      </c>
+      <c r="N3" t="s">
+        <v>699</v>
+      </c>
+      <c r="O3" t="s">
+        <v>705</v>
+      </c>
+      <c r="P3" t="s">
+        <v>714</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>134</v>
+      </c>
+      <c r="R3" t="s">
+        <v>701</v>
+      </c>
+      <c r="S3" s="33" t="s">
+        <v>702</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C037A932-CB5B-8D43-956E-5F5C367E07FC}">
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="8.83203125" customWidth="1"/>
+    <col min="2" max="3" width="11.1640625" customWidth="1"/>
+    <col min="4" max="4" width="8.5" customWidth="1"/>
+    <col min="5" max="5" width="24.6640625" customWidth="1"/>
+    <col min="6" max="6" width="24.5" customWidth="1"/>
+    <col min="7" max="8" width="19.1640625" customWidth="1"/>
+    <col min="9" max="9" width="23.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="17" t="s">
+        <v>715</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>395</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>466</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>716</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>717</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>718</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>719</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>720</v>
+      </c>
+      <c r="B2" t="s">
+        <v>510</v>
+      </c>
+      <c r="E2">
+        <v>100</v>
+      </c>
+      <c r="F2">
+        <v>120</v>
+      </c>
+      <c r="H2" s="6"/>
+      <c r="I2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>721</v>
+      </c>
+      <c r="B3" t="s">
+        <v>722</v>
+      </c>
+      <c r="G3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>721</v>
+      </c>
+      <c r="B4" t="s">
+        <v>724</v>
+      </c>
+      <c r="G4" t="s">
+        <v>725</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B908C5D6-C6A1-4043-A49A-69C599CFBAE9}">
   <dimension ref="A1:M26"/>
   <sheetViews>
@@ -3387,105 +3713,105 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>550</v>
+        <v>532</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>540</v>
+        <v>522</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>543</v>
+        <v>525</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="F1" s="19" t="s">
-        <v>644</v>
+        <v>624</v>
       </c>
       <c r="G1" s="19" t="s">
-        <v>539</v>
+        <v>521</v>
       </c>
       <c r="H1" s="19" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="I1" s="19" t="s">
-        <v>541</v>
+        <v>523</v>
       </c>
       <c r="J1" s="19" t="s">
-        <v>544</v>
+        <v>526</v>
       </c>
       <c r="K1" s="19" t="s">
-        <v>542</v>
+        <v>524</v>
       </c>
       <c r="L1" s="19" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="M1" s="19" t="s">
-        <v>645</v>
+        <v>625</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>548</v>
+        <v>530</v>
       </c>
       <c r="C2" s="12"/>
       <c r="D2" s="12" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="F2" s="12"/>
       <c r="G2" s="12" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>545</v>
+        <v>527</v>
       </c>
       <c r="I2" s="12"/>
       <c r="J2" s="12" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="K2" s="10"/>
       <c r="L2" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="85" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>549</v>
+        <v>531</v>
       </c>
       <c r="C3" s="12"/>
       <c r="D3" s="12" t="s">
-        <v>649</v>
+        <v>629</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>646</v>
+        <v>626</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>546</v>
+        <v>528</v>
       </c>
       <c r="I3" s="12"/>
       <c r="J3" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="K3" s="10"/>
       <c r="L3" s="12" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="34" x14ac:dyDescent="0.2">
@@ -3496,18 +3822,18 @@
       <c r="E4" s="12"/>
       <c r="F4" s="12"/>
       <c r="G4" s="12" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>547</v>
+        <v>529</v>
       </c>
       <c r="I4" s="12"/>
       <c r="J4" s="12" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="K4" s="10"/>
       <c r="L4" s="12" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
@@ -3803,7 +4129,132 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E21BFD86-228C-9E4F-A6E0-17C33821FA3D}">
+  <dimension ref="A1:B14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="40" customWidth="1"/>
+    <col min="2" max="2" width="92.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1" s="38" t="s">
+        <v>650</v>
+      </c>
+      <c r="B1" s="38"/>
+    </row>
+    <row r="2" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A2" s="31" t="s">
+        <v>655</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="32" t="s">
+        <v>638</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="32" t="s">
+        <v>639</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="32" t="s">
+        <v>640</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="32" t="s">
+        <v>642</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="32" t="s">
+        <v>641</v>
+      </c>
+      <c r="B7" s="29" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="21" x14ac:dyDescent="0.25">
+      <c r="A10" s="39" t="s">
+        <v>651</v>
+      </c>
+      <c r="B10" s="39"/>
+    </row>
+    <row r="11" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A11" s="31" t="s">
+        <v>655</v>
+      </c>
+      <c r="B11" s="30" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="32" t="s">
+        <v>657</v>
+      </c>
+      <c r="B12" s="29" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="32" t="s">
+        <v>648</v>
+      </c>
+      <c r="B13" s="29" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="32" t="s">
+        <v>649</v>
+      </c>
+      <c r="B14" s="29" t="s">
+        <v>654</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A10:B10"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{8095E3C2-5E8C-CD42-9844-EF750C313C05}"/>
+    <hyperlink ref="B4" r:id="rId2" xr:uid="{21593E62-5188-8D40-8EDA-0B7363B2CE1D}"/>
+    <hyperlink ref="B5" r:id="rId3" xr:uid="{E1F9617B-866B-F347-8AE6-4F68B78A1880}"/>
+    <hyperlink ref="B6" r:id="rId4" xr:uid="{5C05D2D5-DDA4-424E-9721-32B897827DE4}"/>
+    <hyperlink ref="B7" r:id="rId5" xr:uid="{93A65D4B-7872-D845-BE5F-B7B119471ECA}"/>
+    <hyperlink ref="B12" r:id="rId6" xr:uid="{C42104DA-D938-D547-A04F-2E7BDE4D535E}"/>
+    <hyperlink ref="B13" r:id="rId7" xr:uid="{AA302D20-8437-9340-B21E-D6FAA7FE938A}"/>
+    <hyperlink ref="B14" r:id="rId8" xr:uid="{89159574-3276-2C4D-AF11-A432372C1C35}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBFC82B4-C495-A142-993D-B6A47D77A4C3}">
   <dimension ref="A1:H5"/>
   <sheetViews>
@@ -3825,54 +4276,54 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="27" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="C1" s="27" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D1" s="27" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="E1" s="27" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="F1" s="27" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G1" s="27" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="H1" s="27" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -3884,7 +4335,7 @@
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
       <c r="H3" s="10" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -3896,33 +4347,33 @@
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
       <c r="H4" s="10" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>552</v>
+        <v>534</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>551</v>
+        <v>533</v>
       </c>
     </row>
   </sheetData>
@@ -3930,7 +4381,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D608A778-255D-4443-A7EA-03049F1FC98F}">
   <dimension ref="A1:G5"/>
   <sheetViews>
@@ -3952,65 +4403,65 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>43</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="B2" t="s">
-        <v>560</v>
+        <v>540</v>
       </c>
       <c r="C2" t="s">
-        <v>560</v>
+        <v>540</v>
       </c>
       <c r="D2" t="s">
-        <v>563</v>
+        <v>543</v>
       </c>
       <c r="E2" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="B3" t="s">
-        <v>562</v>
+        <v>542</v>
       </c>
       <c r="C3" t="s">
-        <v>561</v>
+        <v>541</v>
       </c>
       <c r="D3" t="s">
-        <v>563</v>
+        <v>543</v>
       </c>
       <c r="E3" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="G3" t="s">
-        <v>564</v>
+        <v>544</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -4020,1571 +4471,6 @@
       <c r="D5" s="4"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3500D92E-6FB0-8D4D-97D2-7C2457E4D88B}">
-  <dimension ref="A1:H7"/>
-  <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="7.33203125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="21.33203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="12.83203125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="9" style="3" customWidth="1"/>
-    <col min="5" max="5" width="21.6640625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="20.83203125" style="3" customWidth="1"/>
-    <col min="7" max="8" width="22" style="3" customWidth="1"/>
-    <col min="9" max="9" width="10.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
-        <v>406</v>
-      </c>
-      <c r="B1" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>477</v>
-      </c>
-      <c r="D1" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="E1" s="19" t="s">
-        <v>558</v>
-      </c>
-      <c r="F1" s="19" t="s">
-        <v>559</v>
-      </c>
-      <c r="G1" s="19" t="s">
-        <v>147</v>
-      </c>
-      <c r="H1" s="19" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>160</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>161</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>162</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>163</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>575</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>164</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>620</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>610</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>616</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>622</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>621</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>157</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{137D84F3-D0D8-A149-BA12-7DBD407EC782}">
-  <dimension ref="A1:E6"/>
-  <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="9.1640625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="24.83203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="15" style="3" customWidth="1"/>
-    <col min="4" max="4" width="23.5" style="3" customWidth="1"/>
-    <col min="5" max="5" width="27.33203125" style="3" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
-        <v>406</v>
-      </c>
-      <c r="B1" s="19" t="s">
-        <v>168</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>555</v>
-      </c>
-      <c r="D1" s="19" t="s">
-        <v>147</v>
-      </c>
-      <c r="E1" s="19" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>169</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>170</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>171</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>172</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>173</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>189</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58F40359-1191-3843-B5C3-38D19A754655}">
-  <dimension ref="A1:D139"/>
-  <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="14.1640625" style="10" customWidth="1"/>
-    <col min="2" max="2" width="16" style="3" customWidth="1"/>
-    <col min="3" max="3" width="49.83203125" style="9" customWidth="1"/>
-    <col min="4" max="4" width="81.33203125" style="9" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
-        <v>446</v>
-      </c>
-      <c r="B1" s="22" t="s">
-        <v>406</v>
-      </c>
-      <c r="C1" s="20" t="s">
-        <v>210</v>
-      </c>
-      <c r="D1" s="20" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
-        <v>636</v>
-      </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="9" t="s">
-        <v>635</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="9" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="10" t="s">
-        <v>343</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="10" t="s">
-        <v>344</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="10" t="s">
-        <v>345</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="10" t="s">
-        <v>346</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="10" t="s">
-        <v>347</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="10" t="s">
-        <v>348</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="10" t="s">
-        <v>349</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="11" t="s">
-        <v>474</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>475</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="10" t="s">
-        <v>350</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="10" t="s">
-        <v>351</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="10" t="s">
-        <v>342</v>
-      </c>
-      <c r="B14" s="21"/>
-      <c r="C14" s="9" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="10" t="s">
-        <v>352</v>
-      </c>
-      <c r="B15" s="21"/>
-      <c r="C15" s="9" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" s="10" t="s">
-        <v>353</v>
-      </c>
-      <c r="B16" s="21"/>
-      <c r="C16" s="9" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A17" s="10" t="s">
-        <v>354</v>
-      </c>
-      <c r="B17" s="21"/>
-      <c r="C17" s="9" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A18" s="10" t="s">
-        <v>355</v>
-      </c>
-      <c r="B18" s="21"/>
-      <c r="C18" s="9" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A19" s="10" t="s">
-        <v>429</v>
-      </c>
-      <c r="B19" s="21"/>
-      <c r="C19" s="9" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A20" s="10" t="s">
-        <v>430</v>
-      </c>
-      <c r="B20" s="21"/>
-      <c r="C20" s="9" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A21" s="10" t="s">
-        <v>407</v>
-      </c>
-      <c r="B21" s="21"/>
-      <c r="C21" s="9" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A22" s="10" t="s">
-        <v>431</v>
-      </c>
-      <c r="B22" s="21"/>
-      <c r="C22" s="9" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A23" s="10" t="s">
-        <v>432</v>
-      </c>
-      <c r="B23" s="21"/>
-      <c r="C23" s="9" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A24" s="10" t="s">
-        <v>433</v>
-      </c>
-      <c r="B24" s="21"/>
-      <c r="C24" s="9" t="s">
-        <v>232</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A25" s="10" t="s">
-        <v>434</v>
-      </c>
-      <c r="B25" s="21"/>
-      <c r="C25" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A26" s="10" t="s">
-        <v>435</v>
-      </c>
-      <c r="B26" s="21"/>
-      <c r="C26" s="9" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A27" s="10" t="s">
-        <v>398</v>
-      </c>
-      <c r="B27" s="21"/>
-      <c r="C27" s="9" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A28" s="10" t="s">
-        <v>399</v>
-      </c>
-      <c r="B28" s="21"/>
-      <c r="C28" s="9" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A29" s="10" t="s">
-        <v>400</v>
-      </c>
-      <c r="B29" s="21"/>
-      <c r="C29" s="9" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A30" s="10" t="s">
-        <v>401</v>
-      </c>
-      <c r="B30" s="21"/>
-      <c r="C30" s="9" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A31" s="10" t="s">
-        <v>436</v>
-      </c>
-      <c r="B31" s="21"/>
-      <c r="C31" s="9" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A32" s="10" t="s">
-        <v>408</v>
-      </c>
-      <c r="B32" s="21"/>
-      <c r="C32" s="9" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A33" s="10" t="s">
-        <v>437</v>
-      </c>
-      <c r="B33" s="21"/>
-      <c r="C33" s="9" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A34" s="10" t="s">
-        <v>438</v>
-      </c>
-      <c r="B34" s="21"/>
-      <c r="C34" s="9" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A35" s="10" t="s">
-        <v>439</v>
-      </c>
-      <c r="B35" s="21"/>
-      <c r="C35" s="9" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A36" s="10" t="s">
-        <v>356</v>
-      </c>
-      <c r="B36" s="21"/>
-      <c r="C36" s="9" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A37" s="10" t="s">
-        <v>440</v>
-      </c>
-      <c r="B37" s="21"/>
-      <c r="C37" s="9" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A38" s="10" t="s">
-        <v>441</v>
-      </c>
-      <c r="B38" s="21"/>
-      <c r="C38" s="9" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A39" s="10" t="s">
-        <v>357</v>
-      </c>
-      <c r="B39" s="21"/>
-      <c r="C39" s="9" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A40" s="10" t="s">
-        <v>358</v>
-      </c>
-      <c r="B40" s="21"/>
-      <c r="C40" s="9" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A41" s="10" t="s">
-        <v>359</v>
-      </c>
-      <c r="B41" s="21"/>
-      <c r="C41" s="9" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A42" s="10" t="s">
-        <v>442</v>
-      </c>
-      <c r="B42" s="21"/>
-      <c r="C42" s="9" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A43" s="10" t="s">
-        <v>360</v>
-      </c>
-      <c r="B43" s="21"/>
-      <c r="C43" s="9" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A44" s="10" t="s">
-        <v>361</v>
-      </c>
-      <c r="B44" s="21"/>
-      <c r="C44" s="9" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A45" s="10" t="s">
-        <v>362</v>
-      </c>
-      <c r="B45" s="21"/>
-      <c r="C45" s="9" t="s">
-        <v>253</v>
-      </c>
-      <c r="D45" s="9" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A46" s="10" t="s">
-        <v>443</v>
-      </c>
-      <c r="B46" s="21"/>
-      <c r="C46" s="9" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A47" s="10" t="s">
-        <v>444</v>
-      </c>
-      <c r="B47" s="21"/>
-      <c r="C47" s="9" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A48" s="10" t="s">
-        <v>363</v>
-      </c>
-      <c r="B48" s="21"/>
-      <c r="C48" s="9" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A49" s="10" t="s">
-        <v>364</v>
-      </c>
-      <c r="B49" s="21"/>
-      <c r="C49" s="9" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A50" s="10" t="s">
-        <v>365</v>
-      </c>
-      <c r="B50" s="21"/>
-      <c r="C50" s="9" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A51" s="10" t="s">
-        <v>366</v>
-      </c>
-      <c r="B51" s="21"/>
-      <c r="C51" s="9" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A52" s="10" t="s">
-        <v>409</v>
-      </c>
-      <c r="B52" s="21"/>
-      <c r="C52" s="9" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A53" s="10" t="s">
-        <v>445</v>
-      </c>
-      <c r="B53" s="21"/>
-      <c r="C53" s="9" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A54" s="10" t="s">
-        <v>367</v>
-      </c>
-      <c r="B54" s="21"/>
-      <c r="C54" s="9" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A55" s="10" t="s">
-        <v>368</v>
-      </c>
-      <c r="B55" s="21"/>
-      <c r="C55" s="9" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A56" s="10" t="s">
-        <v>369</v>
-      </c>
-      <c r="B56" s="21"/>
-      <c r="C56" s="9" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A57" s="10" t="s">
-        <v>447</v>
-      </c>
-      <c r="B57" s="21"/>
-      <c r="C57" s="9" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A58" s="10" t="s">
-        <v>448</v>
-      </c>
-      <c r="B58" s="21"/>
-      <c r="C58" s="9" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A59" s="10" t="s">
-        <v>449</v>
-      </c>
-      <c r="B59" s="21"/>
-      <c r="C59" s="9" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A60" s="10" t="s">
-        <v>410</v>
-      </c>
-      <c r="B60" s="21"/>
-      <c r="C60" s="9" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A61" s="10" t="s">
-        <v>450</v>
-      </c>
-      <c r="B61" s="21"/>
-      <c r="C61" s="9" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A62" s="10" t="s">
-        <v>451</v>
-      </c>
-      <c r="B62" s="21"/>
-      <c r="C62" s="9" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A63" s="10" t="s">
-        <v>452</v>
-      </c>
-      <c r="B63" s="21"/>
-      <c r="C63" s="9" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A64" s="10" t="s">
-        <v>402</v>
-      </c>
-      <c r="B64" s="21"/>
-      <c r="C64" s="9" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A65" s="10" t="s">
-        <v>370</v>
-      </c>
-      <c r="B65" s="21"/>
-      <c r="C65" s="9" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A66" s="10" t="s">
-        <v>371</v>
-      </c>
-      <c r="B66" s="21"/>
-      <c r="C66" s="9" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A67" s="10" t="s">
-        <v>372</v>
-      </c>
-      <c r="B67" s="21"/>
-      <c r="C67" s="9" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A68" s="10" t="s">
-        <v>373</v>
-      </c>
-      <c r="B68" s="21"/>
-      <c r="C68" s="9" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A69" s="10" t="s">
-        <v>453</v>
-      </c>
-      <c r="B69" s="21"/>
-      <c r="C69" s="9" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A70" s="10" t="s">
-        <v>403</v>
-      </c>
-      <c r="B70" s="21"/>
-      <c r="C70" s="9" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A71" s="10" t="s">
-        <v>374</v>
-      </c>
-      <c r="B71" s="21"/>
-      <c r="C71" s="9" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A72" s="10" t="s">
-        <v>375</v>
-      </c>
-      <c r="B72" s="21"/>
-      <c r="C72" s="9" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A73" s="10" t="s">
-        <v>376</v>
-      </c>
-      <c r="B73" s="21"/>
-      <c r="C73" s="9" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A74" s="10" t="s">
-        <v>377</v>
-      </c>
-      <c r="B74" s="21"/>
-      <c r="C74" s="9" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A75" s="10" t="s">
-        <v>378</v>
-      </c>
-      <c r="B75" s="21"/>
-      <c r="C75" s="9" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A76" s="10" t="s">
-        <v>379</v>
-      </c>
-      <c r="B76" s="21"/>
-      <c r="C76" s="9" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A77" s="10" t="s">
-        <v>380</v>
-      </c>
-      <c r="B77" s="21"/>
-      <c r="C77" s="9" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A78" s="10" t="s">
-        <v>381</v>
-      </c>
-      <c r="B78" s="21"/>
-      <c r="C78" s="9" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A79" s="10" t="s">
-        <v>382</v>
-      </c>
-      <c r="B79" s="21"/>
-      <c r="C79" s="9" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A80" s="10" t="s">
-        <v>454</v>
-      </c>
-      <c r="B80" s="21"/>
-      <c r="C80" s="9" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A81" s="10" t="s">
-        <v>383</v>
-      </c>
-      <c r="B81" s="21"/>
-      <c r="C81" s="9" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A82" s="10" t="s">
-        <v>384</v>
-      </c>
-      <c r="B82" s="21"/>
-      <c r="C82" s="9" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A83" s="10" t="s">
-        <v>455</v>
-      </c>
-      <c r="B83" s="21"/>
-      <c r="C83" s="9" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A84" s="10" t="s">
-        <v>385</v>
-      </c>
-      <c r="B84" s="21"/>
-      <c r="C84" s="9" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A85" s="10" t="s">
-        <v>386</v>
-      </c>
-      <c r="B85" s="21"/>
-      <c r="C85" s="9" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A86" s="10" t="s">
-        <v>387</v>
-      </c>
-      <c r="B86" s="21"/>
-      <c r="C86" s="9" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A87" s="10" t="s">
-        <v>388</v>
-      </c>
-      <c r="B87" s="21"/>
-      <c r="C87" s="9" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A88" s="10" t="s">
-        <v>389</v>
-      </c>
-      <c r="B88" s="21"/>
-      <c r="C88" s="9" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A89" s="10" t="s">
-        <v>456</v>
-      </c>
-      <c r="B89" s="21"/>
-      <c r="C89" s="9" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A90" s="10" t="s">
-        <v>457</v>
-      </c>
-      <c r="B90" s="21"/>
-      <c r="C90" s="9" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A91" s="10" t="s">
-        <v>458</v>
-      </c>
-      <c r="B91" s="21"/>
-      <c r="C91" s="9" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A92" s="10" t="s">
-        <v>450</v>
-      </c>
-      <c r="B92" s="21"/>
-      <c r="C92" s="9" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A93" s="10" t="s">
-        <v>404</v>
-      </c>
-      <c r="B93" s="21"/>
-      <c r="C93" s="9" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A94" s="10" t="s">
-        <v>411</v>
-      </c>
-      <c r="B94" s="21"/>
-      <c r="C94" s="9" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A95" s="10" t="s">
-        <v>459</v>
-      </c>
-      <c r="B95" s="21"/>
-      <c r="C95" s="9" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A96" s="10" t="s">
-        <v>460</v>
-      </c>
-      <c r="B96" s="21"/>
-      <c r="C96" s="9" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A97" s="10" t="s">
-        <v>390</v>
-      </c>
-      <c r="B97" s="21"/>
-      <c r="C97" s="9" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A98" s="10" t="s">
-        <v>391</v>
-      </c>
-      <c r="B98" s="21"/>
-      <c r="C98" s="9" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A99" s="10" t="s">
-        <v>392</v>
-      </c>
-      <c r="B99" s="21"/>
-      <c r="C99" s="9" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A100" s="10" t="s">
-        <v>393</v>
-      </c>
-      <c r="B100" s="21"/>
-      <c r="C100" s="9" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A101" s="10" t="s">
-        <v>394</v>
-      </c>
-      <c r="B101" s="21"/>
-      <c r="C101" s="9" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A102" s="10" t="s">
-        <v>461</v>
-      </c>
-      <c r="B102" s="21"/>
-      <c r="C102" s="9" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A103" s="10" t="s">
-        <v>462</v>
-      </c>
-      <c r="B103" s="21"/>
-      <c r="C103" s="9" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A104" s="10" t="s">
-        <v>463</v>
-      </c>
-      <c r="B104" s="21"/>
-      <c r="C104" s="9" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A105" s="10" t="s">
-        <v>464</v>
-      </c>
-      <c r="B105" s="21"/>
-      <c r="C105" s="9" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A106" s="10" t="s">
-        <v>465</v>
-      </c>
-      <c r="B106" s="21"/>
-      <c r="C106" s="9" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A107" s="10" t="s">
-        <v>466</v>
-      </c>
-      <c r="B107" s="21"/>
-      <c r="C107" s="9" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A108" s="10" t="s">
-        <v>467</v>
-      </c>
-      <c r="B108" s="21"/>
-      <c r="C108" s="9" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A109" s="10" t="s">
-        <v>412</v>
-      </c>
-      <c r="B109" s="21"/>
-      <c r="C109" s="9" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A110" s="10" t="s">
-        <v>468</v>
-      </c>
-      <c r="B110" s="21"/>
-      <c r="C110" s="9" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A111" s="10" t="s">
-        <v>469</v>
-      </c>
-      <c r="B111" s="21"/>
-      <c r="C111" s="9" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A112" s="10" t="s">
-        <v>470</v>
-      </c>
-      <c r="B112" s="21"/>
-      <c r="C112" s="9" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A113" s="10" t="s">
-        <v>471</v>
-      </c>
-      <c r="B113" s="21"/>
-      <c r="C113" s="9" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A114" s="10" t="s">
-        <v>472</v>
-      </c>
-      <c r="B114" s="21"/>
-      <c r="C114" s="9" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A115" s="10" t="s">
-        <v>413</v>
-      </c>
-      <c r="B115" s="21"/>
-      <c r="C115" s="9" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A116" s="10" t="s">
-        <v>428</v>
-      </c>
-      <c r="B116" s="21"/>
-      <c r="C116" s="9" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A117" s="10" t="s">
-        <v>427</v>
-      </c>
-      <c r="B117" s="21"/>
-      <c r="C117" s="9" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A118" s="10" t="s">
-        <v>426</v>
-      </c>
-      <c r="B118" s="21"/>
-      <c r="C118" s="9" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A119" s="10" t="s">
-        <v>414</v>
-      </c>
-      <c r="B119" s="21"/>
-      <c r="C119" s="9" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A120" s="10" t="s">
-        <v>425</v>
-      </c>
-      <c r="B120" s="21"/>
-      <c r="C120" s="9" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A121" s="10" t="s">
-        <v>424</v>
-      </c>
-      <c r="B121" s="21"/>
-      <c r="C121" s="9" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A122" s="10" t="s">
-        <v>423</v>
-      </c>
-      <c r="B122" s="21"/>
-      <c r="C122" s="9" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A123" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="B123" s="21"/>
-      <c r="C123" s="9" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A124" s="10" t="s">
-        <v>415</v>
-      </c>
-      <c r="B124" s="21"/>
-      <c r="C124" s="9" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A125" s="10" t="s">
-        <v>421</v>
-      </c>
-      <c r="B125" s="21"/>
-      <c r="C125" s="9" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A126" s="10" t="s">
-        <v>395</v>
-      </c>
-      <c r="B126" s="21"/>
-      <c r="C126" s="9" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A127" s="10" t="s">
-        <v>396</v>
-      </c>
-      <c r="B127" s="21"/>
-      <c r="C127" s="9" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A128" s="10" t="s">
-        <v>397</v>
-      </c>
-      <c r="B128" s="21"/>
-      <c r="C128" s="9" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A129" s="10" t="s">
-        <v>420</v>
-      </c>
-      <c r="B129" s="21"/>
-      <c r="C129" s="9" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A130" s="10" t="s">
-        <v>419</v>
-      </c>
-      <c r="B130" s="21"/>
-      <c r="C130" s="9" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A131" s="10" t="s">
-        <v>418</v>
-      </c>
-      <c r="B131" s="21"/>
-      <c r="C131" s="9" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A132" s="10" t="s">
-        <v>416</v>
-      </c>
-      <c r="B132" s="21"/>
-      <c r="C132" s="9" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A133" s="10" t="s">
-        <v>417</v>
-      </c>
-      <c r="B133" s="21"/>
-      <c r="C133" s="9" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A134" s="10" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A135" s="10" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A136" s="10" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A137" s="10" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A138" s="10" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A139" s="10" t="s">
-        <v>473</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5609,22 +4495,22 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="25" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
       <c r="B1" s="16" t="s">
+        <v>480</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>481</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>482</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>483</v>
+      </c>
+      <c r="F1" s="26" t="s">
         <v>492</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>493</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>494</v>
-      </c>
-      <c r="E1" s="16" t="s">
-        <v>495</v>
-      </c>
-      <c r="F1" s="26" t="s">
-        <v>504</v>
       </c>
       <c r="G1" s="10"/>
     </row>
@@ -5633,17 +4519,17 @@
         <v>4</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>497</v>
+        <v>485</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>499</v>
+        <v>487</v>
       </c>
       <c r="E2" s="10"/>
       <c r="F2" s="10" t="s">
-        <v>507</v>
+        <v>495</v>
       </c>
       <c r="G2" s="10"/>
     </row>
@@ -5652,17 +4538,17 @@
         <v>3</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>496</v>
+        <v>484</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>500</v>
+        <v>488</v>
       </c>
       <c r="E3" s="10"/>
       <c r="F3" s="10" t="s">
-        <v>508</v>
+        <v>496</v>
       </c>
       <c r="G3" s="10"/>
     </row>
@@ -5671,19 +4557,19 @@
         <v>2</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>501</v>
+        <v>489</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>502</v>
+        <v>490</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>503</v>
+        <v>491</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>509</v>
+        <v>497</v>
       </c>
       <c r="G4" s="10"/>
     </row>
@@ -5692,17 +4578,17 @@
         <v>1</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>505</v>
+        <v>493</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>498</v>
+        <v>486</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>506</v>
+        <v>494</v>
       </c>
       <c r="E5" s="10"/>
       <c r="F5" s="10" t="s">
-        <v>510</v>
+        <v>498</v>
       </c>
       <c r="G5" s="10"/>
     </row>
@@ -5712,6 +4598,1589 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3500D92E-6FB0-8D4D-97D2-7C2457E4D88B}">
+  <dimension ref="A1:I7"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="7.33203125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="12.83203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="9" style="3" customWidth="1"/>
+    <col min="5" max="5" width="21.6640625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="20.83203125" style="3" customWidth="1"/>
+    <col min="7" max="8" width="22" style="3" customWidth="1"/>
+    <col min="9" max="9" width="10.83203125" style="7" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="19" t="s">
+        <v>395</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>466</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>538</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>539</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="I1" s="25" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>555</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>153</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>590</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>596</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>602</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>671</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{137D84F3-D0D8-A149-BA12-7DBD407EC782}">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.1640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="24.83203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="15" style="3" customWidth="1"/>
+    <col min="4" max="4" width="23.5" style="3" customWidth="1"/>
+    <col min="5" max="5" width="27.33203125" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="19" t="s">
+        <v>395</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>535</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>161</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>162</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58F40359-1191-3843-B5C3-38D19A754655}">
+  <dimension ref="A1:D139"/>
+  <sheetViews>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.1640625" style="10" customWidth="1"/>
+    <col min="2" max="2" width="16" style="3" customWidth="1"/>
+    <col min="3" max="3" width="49.83203125" style="9" customWidth="1"/>
+    <col min="4" max="4" width="81.33203125" style="9" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="22" t="s">
+        <v>435</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>395</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>199</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="11" t="s">
+        <v>616</v>
+      </c>
+      <c r="B2" s="21"/>
+      <c r="C2" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="21"/>
+      <c r="C3" s="9" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="10" t="s">
+        <v>332</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="10" t="s">
+        <v>333</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="10" t="s">
+        <v>334</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="10" t="s">
+        <v>335</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="10" t="s">
+        <v>336</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="10" t="s">
+        <v>337</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="10" t="s">
+        <v>338</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="11" t="s">
+        <v>463</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>464</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="10" t="s">
+        <v>339</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="10" t="s">
+        <v>340</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="10" t="s">
+        <v>331</v>
+      </c>
+      <c r="B14" s="21"/>
+      <c r="C14" s="9" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="10" t="s">
+        <v>341</v>
+      </c>
+      <c r="B15" s="21"/>
+      <c r="C15" s="9" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="10" t="s">
+        <v>342</v>
+      </c>
+      <c r="B16" s="21"/>
+      <c r="C16" s="9" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A17" s="10" t="s">
+        <v>343</v>
+      </c>
+      <c r="B17" s="21"/>
+      <c r="C17" s="9" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A18" s="10" t="s">
+        <v>344</v>
+      </c>
+      <c r="B18" s="21"/>
+      <c r="C18" s="9" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A19" s="10" t="s">
+        <v>418</v>
+      </c>
+      <c r="B19" s="21"/>
+      <c r="C19" s="9" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A20" s="10" t="s">
+        <v>419</v>
+      </c>
+      <c r="B20" s="21"/>
+      <c r="C20" s="9" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A21" s="10" t="s">
+        <v>396</v>
+      </c>
+      <c r="B21" s="21"/>
+      <c r="C21" s="9" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A22" s="10" t="s">
+        <v>420</v>
+      </c>
+      <c r="B22" s="21"/>
+      <c r="C22" s="9" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A23" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="B23" s="21"/>
+      <c r="C23" s="9" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A24" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="B24" s="21"/>
+      <c r="C24" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A25" s="10" t="s">
+        <v>423</v>
+      </c>
+      <c r="B25" s="21"/>
+      <c r="C25" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A26" s="10" t="s">
+        <v>424</v>
+      </c>
+      <c r="B26" s="21"/>
+      <c r="C26" s="9" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A27" s="10" t="s">
+        <v>387</v>
+      </c>
+      <c r="B27" s="21"/>
+      <c r="C27" s="9" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A28" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="B28" s="21"/>
+      <c r="C28" s="9" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A29" s="10" t="s">
+        <v>389</v>
+      </c>
+      <c r="B29" s="21"/>
+      <c r="C29" s="9" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A30" s="10" t="s">
+        <v>390</v>
+      </c>
+      <c r="B30" s="21"/>
+      <c r="C30" s="9" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A31" s="10" t="s">
+        <v>425</v>
+      </c>
+      <c r="B31" s="21"/>
+      <c r="C31" s="9" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A32" s="10" t="s">
+        <v>397</v>
+      </c>
+      <c r="B32" s="21"/>
+      <c r="C32" s="9" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A33" s="10" t="s">
+        <v>426</v>
+      </c>
+      <c r="B33" s="21"/>
+      <c r="C33" s="9" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A34" s="10" t="s">
+        <v>427</v>
+      </c>
+      <c r="B34" s="21"/>
+      <c r="C34" s="9" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A35" s="10" t="s">
+        <v>428</v>
+      </c>
+      <c r="B35" s="21"/>
+      <c r="C35" s="9" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A36" s="10" t="s">
+        <v>345</v>
+      </c>
+      <c r="B36" s="21"/>
+      <c r="C36" s="9" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A37" s="10" t="s">
+        <v>429</v>
+      </c>
+      <c r="B37" s="21"/>
+      <c r="C37" s="9" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A38" s="10" t="s">
+        <v>430</v>
+      </c>
+      <c r="B38" s="21"/>
+      <c r="C38" s="9" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A39" s="10" t="s">
+        <v>346</v>
+      </c>
+      <c r="B39" s="21"/>
+      <c r="C39" s="9" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A40" s="10" t="s">
+        <v>347</v>
+      </c>
+      <c r="B40" s="21"/>
+      <c r="C40" s="9" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A41" s="10" t="s">
+        <v>348</v>
+      </c>
+      <c r="B41" s="21"/>
+      <c r="C41" s="9" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A42" s="10" t="s">
+        <v>431</v>
+      </c>
+      <c r="B42" s="21"/>
+      <c r="C42" s="9" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A43" s="10" t="s">
+        <v>349</v>
+      </c>
+      <c r="B43" s="21"/>
+      <c r="C43" s="9" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A44" s="10" t="s">
+        <v>350</v>
+      </c>
+      <c r="B44" s="21"/>
+      <c r="C44" s="9" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A45" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="B45" s="21"/>
+      <c r="C45" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A46" s="10" t="s">
+        <v>432</v>
+      </c>
+      <c r="B46" s="21"/>
+      <c r="C46" s="9" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A47" s="10" t="s">
+        <v>433</v>
+      </c>
+      <c r="B47" s="21"/>
+      <c r="C47" s="9" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A48" s="10" t="s">
+        <v>352</v>
+      </c>
+      <c r="B48" s="21"/>
+      <c r="C48" s="9" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A49" s="10" t="s">
+        <v>353</v>
+      </c>
+      <c r="B49" s="21"/>
+      <c r="C49" s="9" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A50" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="B50" s="21"/>
+      <c r="C50" s="9" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A51" s="10" t="s">
+        <v>355</v>
+      </c>
+      <c r="B51" s="21"/>
+      <c r="C51" s="9" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A52" s="10" t="s">
+        <v>398</v>
+      </c>
+      <c r="B52" s="21"/>
+      <c r="C52" s="9" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A53" s="10" t="s">
+        <v>434</v>
+      </c>
+      <c r="B53" s="21"/>
+      <c r="C53" s="9" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A54" s="10" t="s">
+        <v>356</v>
+      </c>
+      <c r="B54" s="21"/>
+      <c r="C54" s="9" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A55" s="10" t="s">
+        <v>357</v>
+      </c>
+      <c r="B55" s="21"/>
+      <c r="C55" s="9" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A56" s="10" t="s">
+        <v>358</v>
+      </c>
+      <c r="B56" s="21"/>
+      <c r="C56" s="9" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A57" s="10" t="s">
+        <v>436</v>
+      </c>
+      <c r="B57" s="21"/>
+      <c r="C57" s="9" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A58" s="10" t="s">
+        <v>437</v>
+      </c>
+      <c r="B58" s="21"/>
+      <c r="C58" s="9" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A59" s="10" t="s">
+        <v>438</v>
+      </c>
+      <c r="B59" s="21"/>
+      <c r="C59" s="9" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A60" s="10" t="s">
+        <v>399</v>
+      </c>
+      <c r="B60" s="21"/>
+      <c r="C60" s="9" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A61" s="10" t="s">
+        <v>439</v>
+      </c>
+      <c r="B61" s="21"/>
+      <c r="C61" s="9" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A62" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="B62" s="21"/>
+      <c r="C62" s="9" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A63" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="B63" s="21"/>
+      <c r="C63" s="9" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A64" s="10" t="s">
+        <v>391</v>
+      </c>
+      <c r="B64" s="21"/>
+      <c r="C64" s="9" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A65" s="10" t="s">
+        <v>359</v>
+      </c>
+      <c r="B65" s="21"/>
+      <c r="C65" s="9" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A66" s="10" t="s">
+        <v>360</v>
+      </c>
+      <c r="B66" s="21"/>
+      <c r="C66" s="9" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A67" s="10" t="s">
+        <v>361</v>
+      </c>
+      <c r="B67" s="21"/>
+      <c r="C67" s="9" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A68" s="10" t="s">
+        <v>362</v>
+      </c>
+      <c r="B68" s="21"/>
+      <c r="C68" s="9" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A69" s="10" t="s">
+        <v>442</v>
+      </c>
+      <c r="B69" s="21"/>
+      <c r="C69" s="9" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A70" s="10" t="s">
+        <v>392</v>
+      </c>
+      <c r="B70" s="21"/>
+      <c r="C70" s="9" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A71" s="10" t="s">
+        <v>363</v>
+      </c>
+      <c r="B71" s="21"/>
+      <c r="C71" s="9" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A72" s="10" t="s">
+        <v>364</v>
+      </c>
+      <c r="B72" s="21"/>
+      <c r="C72" s="9" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A73" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="B73" s="21"/>
+      <c r="C73" s="9" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A74" s="10" t="s">
+        <v>366</v>
+      </c>
+      <c r="B74" s="21"/>
+      <c r="C74" s="9" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A75" s="10" t="s">
+        <v>367</v>
+      </c>
+      <c r="B75" s="21"/>
+      <c r="C75" s="9" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A76" s="10" t="s">
+        <v>368</v>
+      </c>
+      <c r="B76" s="21"/>
+      <c r="C76" s="9" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A77" s="10" t="s">
+        <v>369</v>
+      </c>
+      <c r="B77" s="21"/>
+      <c r="C77" s="9" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A78" s="10" t="s">
+        <v>370</v>
+      </c>
+      <c r="B78" s="21"/>
+      <c r="C78" s="9" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A79" s="10" t="s">
+        <v>371</v>
+      </c>
+      <c r="B79" s="21"/>
+      <c r="C79" s="9" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A80" s="10" t="s">
+        <v>443</v>
+      </c>
+      <c r="B80" s="21"/>
+      <c r="C80" s="9" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A81" s="10" t="s">
+        <v>372</v>
+      </c>
+      <c r="B81" s="21"/>
+      <c r="C81" s="9" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A82" s="10" t="s">
+        <v>373</v>
+      </c>
+      <c r="B82" s="21"/>
+      <c r="C82" s="9" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A83" s="10" t="s">
+        <v>444</v>
+      </c>
+      <c r="B83" s="21"/>
+      <c r="C83" s="9" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A84" s="10" t="s">
+        <v>374</v>
+      </c>
+      <c r="B84" s="21"/>
+      <c r="C84" s="9" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A85" s="10" t="s">
+        <v>375</v>
+      </c>
+      <c r="B85" s="21"/>
+      <c r="C85" s="9" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A86" s="10" t="s">
+        <v>376</v>
+      </c>
+      <c r="B86" s="21"/>
+      <c r="C86" s="9" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A87" s="10" t="s">
+        <v>377</v>
+      </c>
+      <c r="B87" s="21"/>
+      <c r="C87" s="9" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A88" s="10" t="s">
+        <v>378</v>
+      </c>
+      <c r="B88" s="21"/>
+      <c r="C88" s="9" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A89" s="10" t="s">
+        <v>445</v>
+      </c>
+      <c r="B89" s="21"/>
+      <c r="C89" s="9" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A90" s="10" t="s">
+        <v>446</v>
+      </c>
+      <c r="B90" s="21"/>
+      <c r="C90" s="9" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A91" s="10" t="s">
+        <v>447</v>
+      </c>
+      <c r="B91" s="21"/>
+      <c r="C91" s="9" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A92" s="10" t="s">
+        <v>439</v>
+      </c>
+      <c r="B92" s="21"/>
+      <c r="C92" s="9" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A93" s="10" t="s">
+        <v>393</v>
+      </c>
+      <c r="B93" s="21"/>
+      <c r="C93" s="9" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A94" s="10" t="s">
+        <v>400</v>
+      </c>
+      <c r="B94" s="21"/>
+      <c r="C94" s="9" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A95" s="10" t="s">
+        <v>448</v>
+      </c>
+      <c r="B95" s="21"/>
+      <c r="C95" s="9" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A96" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="B96" s="21"/>
+      <c r="C96" s="9" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A97" s="10" t="s">
+        <v>379</v>
+      </c>
+      <c r="B97" s="21"/>
+      <c r="C97" s="9" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A98" s="10" t="s">
+        <v>380</v>
+      </c>
+      <c r="B98" s="21"/>
+      <c r="C98" s="9" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A99" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="B99" s="21"/>
+      <c r="C99" s="9" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A100" s="10" t="s">
+        <v>382</v>
+      </c>
+      <c r="B100" s="21"/>
+      <c r="C100" s="9" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A101" s="10" t="s">
+        <v>383</v>
+      </c>
+      <c r="B101" s="21"/>
+      <c r="C101" s="9" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A102" s="10" t="s">
+        <v>450</v>
+      </c>
+      <c r="B102" s="21"/>
+      <c r="C102" s="9" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A103" s="10" t="s">
+        <v>451</v>
+      </c>
+      <c r="B103" s="21"/>
+      <c r="C103" s="9" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A104" s="10" t="s">
+        <v>452</v>
+      </c>
+      <c r="B104" s="21"/>
+      <c r="C104" s="9" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A105" s="10" t="s">
+        <v>453</v>
+      </c>
+      <c r="B105" s="21"/>
+      <c r="C105" s="9" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A106" s="10" t="s">
+        <v>454</v>
+      </c>
+      <c r="B106" s="21"/>
+      <c r="C106" s="9" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A107" s="10" t="s">
+        <v>455</v>
+      </c>
+      <c r="B107" s="21"/>
+      <c r="C107" s="9" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A108" s="10" t="s">
+        <v>456</v>
+      </c>
+      <c r="B108" s="21"/>
+      <c r="C108" s="9" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A109" s="10" t="s">
+        <v>401</v>
+      </c>
+      <c r="B109" s="21"/>
+      <c r="C109" s="9" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A110" s="10" t="s">
+        <v>457</v>
+      </c>
+      <c r="B110" s="21"/>
+      <c r="C110" s="9" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A111" s="10" t="s">
+        <v>458</v>
+      </c>
+      <c r="B111" s="21"/>
+      <c r="C111" s="9" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A112" s="10" t="s">
+        <v>459</v>
+      </c>
+      <c r="B112" s="21"/>
+      <c r="C112" s="9" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A113" s="10" t="s">
+        <v>460</v>
+      </c>
+      <c r="B113" s="21"/>
+      <c r="C113" s="9" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A114" s="10" t="s">
+        <v>461</v>
+      </c>
+      <c r="B114" s="21"/>
+      <c r="C114" s="9" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A115" s="10" t="s">
+        <v>402</v>
+      </c>
+      <c r="B115" s="21"/>
+      <c r="C115" s="9" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A116" s="10" t="s">
+        <v>417</v>
+      </c>
+      <c r="B116" s="21"/>
+      <c r="C116" s="9" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A117" s="10" t="s">
+        <v>416</v>
+      </c>
+      <c r="B117" s="21"/>
+      <c r="C117" s="9" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A118" s="10" t="s">
+        <v>415</v>
+      </c>
+      <c r="B118" s="21"/>
+      <c r="C118" s="9" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A119" s="10" t="s">
+        <v>403</v>
+      </c>
+      <c r="B119" s="21"/>
+      <c r="C119" s="9" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A120" s="10" t="s">
+        <v>414</v>
+      </c>
+      <c r="B120" s="21"/>
+      <c r="C120" s="9" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A121" s="10" t="s">
+        <v>413</v>
+      </c>
+      <c r="B121" s="21"/>
+      <c r="C121" s="9" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A122" s="10" t="s">
+        <v>412</v>
+      </c>
+      <c r="B122" s="21"/>
+      <c r="C122" s="9" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A123" s="10" t="s">
+        <v>411</v>
+      </c>
+      <c r="B123" s="21"/>
+      <c r="C123" s="9" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A124" s="10" t="s">
+        <v>404</v>
+      </c>
+      <c r="B124" s="21"/>
+      <c r="C124" s="9" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A125" s="10" t="s">
+        <v>410</v>
+      </c>
+      <c r="B125" s="21"/>
+      <c r="C125" s="9" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A126" s="10" t="s">
+        <v>384</v>
+      </c>
+      <c r="B126" s="21"/>
+      <c r="C126" s="9" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A127" s="10" t="s">
+        <v>385</v>
+      </c>
+      <c r="B127" s="21"/>
+      <c r="C127" s="9" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A128" s="10" t="s">
+        <v>386</v>
+      </c>
+      <c r="B128" s="21"/>
+      <c r="C128" s="9" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A129" s="10" t="s">
+        <v>409</v>
+      </c>
+      <c r="B129" s="21"/>
+      <c r="C129" s="9" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A130" s="10" t="s">
+        <v>408</v>
+      </c>
+      <c r="B130" s="21"/>
+      <c r="C130" s="9" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A131" s="10" t="s">
+        <v>407</v>
+      </c>
+      <c r="B131" s="21"/>
+      <c r="C131" s="9" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A132" s="10" t="s">
+        <v>405</v>
+      </c>
+      <c r="B132" s="21"/>
+      <c r="C132" s="9" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A133" s="10" t="s">
+        <v>406</v>
+      </c>
+      <c r="B133" s="21"/>
+      <c r="C133" s="9" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A134" s="10" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A135" s="10" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A136" s="10" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A137" s="10" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A138" s="10" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A139" s="10" t="s">
+        <v>462</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1886B59F-3C17-014D-9C61-BEC33F421A82}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -5726,18 +6195,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="B1" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="B2" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -5745,11 +6214,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6CCACBD-9050-2546-A791-CCDEA21B15F7}">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
@@ -5760,95 +6229,95 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
-        <v>670</v>
-      </c>
-      <c r="B1" s="33"/>
+      <c r="A1" s="38" t="s">
+        <v>650</v>
+      </c>
+      <c r="B1" s="38"/>
     </row>
     <row r="2" spans="1:2" ht="19" x14ac:dyDescent="0.25">
-      <c r="A2" s="36" t="s">
-        <v>675</v>
-      </c>
-      <c r="B2" s="35" t="s">
-        <v>676</v>
+      <c r="A2" s="31" t="s">
+        <v>655</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>656</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="37" t="s">
-        <v>658</v>
-      </c>
-      <c r="B3" s="32" t="s">
-        <v>663</v>
+      <c r="A3" s="32" t="s">
+        <v>638</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>643</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="37" t="s">
-        <v>659</v>
-      </c>
-      <c r="B4" s="32" t="s">
-        <v>664</v>
+      <c r="A4" s="32" t="s">
+        <v>639</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>644</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="37" t="s">
-        <v>660</v>
-      </c>
-      <c r="B5" s="32" t="s">
-        <v>665</v>
+      <c r="A5" s="32" t="s">
+        <v>640</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>645</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="37" t="s">
-        <v>662</v>
-      </c>
-      <c r="B6" s="32" t="s">
-        <v>666</v>
+      <c r="A6" s="32" t="s">
+        <v>642</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>646</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="37" t="s">
-        <v>661</v>
-      </c>
-      <c r="B7" s="32" t="s">
-        <v>667</v>
+      <c r="A7" s="32" t="s">
+        <v>641</v>
+      </c>
+      <c r="B7" s="29" t="s">
+        <v>647</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="21" x14ac:dyDescent="0.25">
-      <c r="A10" s="34" t="s">
-        <v>671</v>
-      </c>
-      <c r="B10" s="34"/>
+      <c r="A10" s="39" t="s">
+        <v>651</v>
+      </c>
+      <c r="B10" s="39"/>
     </row>
     <row r="11" spans="1:2" ht="19" x14ac:dyDescent="0.25">
-      <c r="A11" s="36" t="s">
-        <v>675</v>
-      </c>
-      <c r="B11" s="35" t="s">
-        <v>676</v>
+      <c r="A11" s="31" t="s">
+        <v>655</v>
+      </c>
+      <c r="B11" s="30" t="s">
+        <v>656</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="37" t="s">
-        <v>677</v>
-      </c>
-      <c r="B12" s="32" t="s">
-        <v>672</v>
+      <c r="A12" s="32" t="s">
+        <v>657</v>
+      </c>
+      <c r="B12" s="29" t="s">
+        <v>652</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="37" t="s">
-        <v>668</v>
-      </c>
-      <c r="B13" s="32" t="s">
-        <v>673</v>
+      <c r="A13" s="32" t="s">
+        <v>648</v>
+      </c>
+      <c r="B13" s="29" t="s">
+        <v>653</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="37" t="s">
-        <v>669</v>
-      </c>
-      <c r="B14" s="32" t="s">
-        <v>674</v>
+      <c r="A14" s="32" t="s">
+        <v>649</v>
+      </c>
+      <c r="B14" s="29" t="s">
+        <v>654</v>
       </c>
     </row>
   </sheetData>
@@ -5872,16 +6341,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9227F54-17C1-E44A-AD70-49AE8CBF35F9}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F3"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="27.33203125" customWidth="1"/>
-    <col min="2" max="3" width="22.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="3" max="3" width="29.33203125" customWidth="1"/>
     <col min="4" max="4" width="23.33203125" customWidth="1"/>
     <col min="5" max="5" width="22.33203125" customWidth="1"/>
     <col min="6" max="6" width="52.5" customWidth="1"/>
@@ -5918,13 +6388,13 @@
         <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="E2" t="s">
         <v>22</v>
       </c>
       <c r="F2" t="s">
-        <v>633</v>
+        <v>613</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -5938,13 +6408,64 @@
         <v>36</v>
       </c>
       <c r="D3" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="E3" t="s">
         <v>37</v>
       </c>
       <c r="F3" t="s">
-        <v>634</v>
+        <v>614</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>658</v>
+      </c>
+      <c r="B4" t="s">
+        <v>661</v>
+      </c>
+      <c r="C4" t="s">
+        <v>664</v>
+      </c>
+      <c r="D4" t="s">
+        <v>663</v>
+      </c>
+      <c r="E4" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>659</v>
+      </c>
+      <c r="B5" t="s">
+        <v>662</v>
+      </c>
+      <c r="C5" t="s">
+        <v>665</v>
+      </c>
+      <c r="D5" t="s">
+        <v>663</v>
+      </c>
+      <c r="E5" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>667</v>
+      </c>
+      <c r="B6" t="s">
+        <v>660</v>
+      </c>
+      <c r="C6" t="s">
+        <v>666</v>
+      </c>
+      <c r="D6" t="s">
+        <v>116</v>
+      </c>
+      <c r="E6" t="s">
+        <v>670</v>
       </c>
     </row>
   </sheetData>
@@ -5969,115 +6490,115 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
-        <v>192</v>
-      </c>
-      <c r="B1" s="29" t="s">
-        <v>191</v>
-      </c>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
+        <v>181</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>180</v>
+      </c>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
-        <v>193</v>
-      </c>
-      <c r="B2" s="29" t="s">
-        <v>190</v>
-      </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
+        <v>182</v>
+      </c>
+      <c r="B2" s="35" t="s">
+        <v>179</v>
+      </c>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
     </row>
     <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="30" t="s">
-        <v>128</v>
-      </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
+      <c r="B3" s="37" t="s">
+        <v>117</v>
+      </c>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="31" t="s">
-        <v>146</v>
-      </c>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
+      <c r="B4" s="36" t="s">
+        <v>135</v>
+      </c>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="31" t="s">
-        <v>114</v>
-      </c>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
+      <c r="B5" s="36" t="s">
+        <v>103</v>
+      </c>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="29" t="s">
-        <v>115</v>
-      </c>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
+      <c r="B6" s="35" t="s">
+        <v>104</v>
+      </c>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="29" t="s">
-        <v>117</v>
-      </c>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
+      <c r="B7" s="35" t="s">
+        <v>106</v>
+      </c>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="29" t="s">
-        <v>116</v>
-      </c>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
+      <c r="B8" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="B9" s="29" t="s">
-        <v>129</v>
-      </c>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
+        <v>118</v>
+      </c>
+      <c r="B9" s="35" t="s">
+        <v>118</v>
+      </c>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="B10" s="29"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
+        <v>119</v>
+      </c>
+      <c r="B10" s="35"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>26</v>
@@ -6097,16 +6618,16 @@
         <v>24</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -6114,16 +6635,16 @@
         <v>25</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -6140,16 +6661,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6175,22 +6696,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="B1" s="19" t="s">
         <v>43</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="D1" s="19" t="s">
         <v>42</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>556</v>
+        <v>536</v>
       </c>
       <c r="F1" s="19" t="s">
-        <v>557</v>
+        <v>537</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -6198,19 +6719,19 @@
         <v>24</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -6224,13 +6745,13 @@
         <v>25</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -6259,13 +6780,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="B1" s="19" t="s">
         <v>43</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="D1" s="19" t="s">
         <v>42</v>
@@ -6276,13 +6797,13 @@
         <v>26</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -6290,13 +6811,13 @@
         <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -6304,13 +6825,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -6318,13 +6839,13 @@
         <v>27</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -6352,102 +6873,102 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>476</v>
+        <v>465</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>512</v>
+        <v>500</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="D1" s="19" t="s">
         <v>43</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="F1" s="19" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="G1" s="19" t="s">
-        <v>513</v>
+        <v>501</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>524</v>
+        <v>512</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>525</v>
+        <v>513</v>
       </c>
       <c r="C2" t="s">
-        <v>526</v>
+        <v>514</v>
       </c>
       <c r="D2" t="s">
-        <v>527</v>
+        <v>515</v>
       </c>
       <c r="F2" t="s">
-        <v>528</v>
+        <v>516</v>
       </c>
       <c r="G2" t="s">
-        <v>517</v>
+        <v>505</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>524</v>
+        <v>512</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>535</v>
+        <v>517</v>
       </c>
       <c r="C3" t="s">
-        <v>536</v>
+        <v>518</v>
       </c>
       <c r="D3" t="s">
-        <v>537</v>
+        <v>519</v>
       </c>
       <c r="F3" t="s">
-        <v>538</v>
+        <v>520</v>
       </c>
       <c r="G3" t="s">
-        <v>517</v>
+        <v>505</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>640</v>
+        <v>620</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>525</v>
+        <v>513</v>
       </c>
       <c r="C4" t="s">
-        <v>641</v>
+        <v>621</v>
       </c>
       <c r="D4" t="s">
-        <v>642</v>
+        <v>622</v>
       </c>
       <c r="F4" t="s">
-        <v>643</v>
+        <v>623</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>640</v>
+        <v>620</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>535</v>
+        <v>517</v>
       </c>
       <c r="C5" t="s">
-        <v>655</v>
+        <v>635</v>
       </c>
       <c r="D5" t="s">
-        <v>656</v>
+        <v>636</v>
       </c>
       <c r="F5" t="s">
-        <v>657</v>
+        <v>637</v>
       </c>
       <c r="G5" t="s">
-        <v>651</v>
+        <v>631</v>
       </c>
     </row>
   </sheetData>
@@ -6460,7 +6981,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6475,108 +6996,108 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="B1" s="19" t="s">
         <v>43</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>514</v>
+        <v>502</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>515</v>
+        <v>503</v>
       </c>
       <c r="F1" s="19" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="G1" s="19" t="s">
-        <v>516</v>
+        <v>504</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>517</v>
+        <v>505</v>
       </c>
       <c r="B2" t="s">
-        <v>518</v>
+        <v>506</v>
       </c>
       <c r="C2" t="s">
-        <v>519</v>
+        <v>507</v>
       </c>
       <c r="D2" t="s">
-        <v>520</v>
+        <v>508</v>
       </c>
       <c r="E2" t="s">
-        <v>521</v>
+        <v>509</v>
       </c>
       <c r="F2" t="s">
-        <v>522</v>
+        <v>510</v>
       </c>
       <c r="G2" t="s">
-        <v>53</v>
+        <v>718</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
-        <v>523</v>
+        <v>511</v>
       </c>
       <c r="E3" t="s">
-        <v>521</v>
+        <v>509</v>
       </c>
       <c r="F3" t="s">
-        <v>522</v>
+        <v>510</v>
       </c>
       <c r="G3" t="s">
-        <v>62</v>
+        <v>719</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>646</v>
+        <v>626</v>
       </c>
       <c r="B4" t="s">
-        <v>647</v>
+        <v>627</v>
       </c>
       <c r="C4" t="s">
-        <v>648</v>
+        <v>628</v>
       </c>
       <c r="D4" t="s">
-        <v>520</v>
+        <v>508</v>
       </c>
       <c r="E4" t="s">
-        <v>521</v>
+        <v>509</v>
       </c>
       <c r="F4" t="s">
-        <v>522</v>
+        <v>510</v>
       </c>
       <c r="G4" t="s">
-        <v>53</v>
+        <v>718</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>651</v>
+        <v>631</v>
       </c>
       <c r="B5" t="s">
-        <v>652</v>
+        <v>632</v>
       </c>
       <c r="C5" t="s">
-        <v>653</v>
+        <v>633</v>
       </c>
       <c r="D5" t="s">
-        <v>654</v>
+        <v>634</v>
       </c>
       <c r="E5" t="s">
-        <v>577</v>
+        <v>557</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G5" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
     </row>
   </sheetData>
@@ -6589,7 +7110,7 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
       <selection pane="bottomRight" activeCell="F5" sqref="F5"/>
@@ -6606,42 +7127,42 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>567</v>
+        <v>547</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>568</v>
+        <v>548</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>569</v>
+        <v>549</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>570</v>
+        <v>550</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>571</v>
+        <v>551</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>611</v>
+        <v>591</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>572</v>
+        <v>552</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>43</v>
@@ -6650,36 +7171,36 @@
         <v>0</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>573</v>
+        <v>553</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>574</v>
+        <v>554</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>575</v>
+        <v>555</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>613</v>
+        <v>593</v>
       </c>
       <c r="I2" s="28" t="s">
-        <v>612</v>
+        <v>592</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>576</v>
+        <v>556</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>6</v>
@@ -6688,16 +7209,16 @@
         <v>1</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>575</v>
+        <v>555</v>
       </c>
       <c r="H3" s="28" t="s">
-        <v>615</v>
+        <v>595</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>610</v>
+        <v>590</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -6706,65 +7227,65 @@
         <v>42</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>577</v>
+        <v>557</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>577</v>
+        <v>557</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>577</v>
+        <v>557</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>577</v>
+        <v>557</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>578</v>
+        <v>558</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>577</v>
+        <v>557</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>577</v>
+        <v>557</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="13"/>
       <c r="C5" s="13" t="s">
-        <v>579</v>
+        <v>559</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>568</v>
+        <v>548</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>569</v>
+        <v>549</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>570</v>
+        <v>550</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>571</v>
+        <v>551</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>611</v>
+        <v>591</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>572</v>
+        <v>552</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>580</v>
+        <v>560</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A6" s="13"/>
       <c r="C6" s="13" t="s">
-        <v>581</v>
+        <v>561</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="28" t="s">
-        <v>614</v>
+        <v>594</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
@@ -6773,7 +7294,7 @@
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="13" t="s">
-        <v>582</v>
+        <v>562</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>0</v>
@@ -6798,26 +7319,26 @@
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="13" t="s">
-        <v>583</v>
+        <v>563</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>616</v>
+        <v>596</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -6828,7 +7349,7 @@
         <v>4</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -6856,10 +7377,10 @@
         <v>8</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>627</v>
+        <v>607</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>565</v>
+        <v>545</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>2</v>
@@ -6884,10 +7405,10 @@
         <v>8</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>632</v>
+        <v>612</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>631</v>
+        <v>611</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>2</v>
@@ -6902,10 +7423,10 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>623</v>
+        <v>603</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>624</v>
+        <v>604</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>2</v>

--- a/docs/example_spreadsheet.xlsx
+++ b/docs/example_spreadsheet.xlsx
@@ -1,35 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1AB692AE-C503-DA4E-90C6-B3BC43C65791}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D046ED52-2FC3-EB48-B8B3-A28FB1148061}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="53480" yWindow="500" windowWidth="44940" windowHeight="26040" firstSheet="2" activeTab="16" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="1740" yWindow="500" windowWidth="44940" windowHeight="26040" firstSheet="11" activeTab="12" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
     <sheet name="studyAmendments" sheetId="18" r:id="rId2"/>
     <sheet name="studyIdentifiers" sheetId="3" r:id="rId3"/>
     <sheet name="studyDesign" sheetId="4" r:id="rId4"/>
-    <sheet name="studyDesignArms" sheetId="15" r:id="rId5"/>
-    <sheet name="studyDesignEpochs" sheetId="14" r:id="rId6"/>
-    <sheet name="studyDesignEligibilityCriteria" sheetId="19" r:id="rId7"/>
-    <sheet name="dictionaries" sheetId="23" r:id="rId8"/>
-    <sheet name="mainTimeline" sheetId="1" r:id="rId9"/>
-    <sheet name="Sheet1" sheetId="28" r:id="rId10"/>
+    <sheet name="studyDesignSites" sheetId="30" r:id="rId5"/>
+    <sheet name="studyDesignArms" sheetId="15" r:id="rId6"/>
+    <sheet name="studyDesignEpochs" sheetId="14" r:id="rId7"/>
+    <sheet name="studyDesignEligibilityCriteria" sheetId="19" r:id="rId8"/>
+    <sheet name="dictionaries" sheetId="23" r:id="rId9"/>
+    <sheet name="mainTimeline" sheetId="1" r:id="rId10"/>
     <sheet name="studyDesignTiming" sheetId="25" r:id="rId11"/>
-    <sheet name="studyDesignActivities" sheetId="16" r:id="rId12"/>
-    <sheet name="studyDesignIndications" sheetId="6" r:id="rId13"/>
-    <sheet name="studyDesignInterventions" sheetId="27" r:id="rId14"/>
-    <sheet name="studyDesignPopulations" sheetId="7" r:id="rId15"/>
-    <sheet name="studyDesignOE" sheetId="8" r:id="rId16"/>
-    <sheet name="Sheet2" sheetId="29" r:id="rId17"/>
+    <sheet name="studyDesignConditions" sheetId="31" r:id="rId12"/>
+    <sheet name="studyDesignActivities" sheetId="16" r:id="rId13"/>
+    <sheet name="studyDesignIndications" sheetId="6" r:id="rId14"/>
+    <sheet name="studyDesignInterventions" sheetId="27" r:id="rId15"/>
+    <sheet name="studyDesignPopulations" sheetId="7" r:id="rId16"/>
+    <sheet name="studyDesignOE" sheetId="8" r:id="rId17"/>
     <sheet name="studyDesignEstimands" sheetId="9" r:id="rId18"/>
     <sheet name="studyDesignProcedures" sheetId="11" r:id="rId19"/>
     <sheet name="studyDesignEncounters" sheetId="12" r:id="rId20"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="979" uniqueCount="726">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="755">
   <si>
     <t>Screening</t>
   </si>
@@ -205,18 +205,12 @@
     <t>populationDescription</t>
   </si>
   <si>
-    <t>18 years</t>
-  </si>
-  <si>
     <t>plannedSexOfParticipants</t>
   </si>
   <si>
     <t>BOTH</t>
   </si>
   <si>
-    <t>70 years</t>
-  </si>
-  <si>
     <t>objectiveDescription</t>
   </si>
   <si>
@@ -445,12 +439,6 @@
     <t>procedureCode</t>
   </si>
   <si>
-    <t>procedureIsConditional</t>
-  </si>
-  <si>
-    <t>procedureIsConditionalReason</t>
-  </si>
-  <si>
     <t>PR1</t>
   </si>
   <si>
@@ -649,12 +637,6 @@
     <t>Placebo Comparator Arm</t>
   </si>
   <si>
-    <t>activityIsConditional</t>
-  </si>
-  <si>
-    <t>activityIsConditionalReason</t>
-  </si>
-  <si>
     <t>Basic Demog</t>
   </si>
   <si>
@@ -1546,9 +1528,6 @@
     <t>Other=Fix typographical errors</t>
   </si>
   <si>
-    <t>Global: 65%</t>
-  </si>
-  <si>
     <t>Region: Europe=15, Country: USA=20%</t>
   </si>
   <si>
@@ -1693,15 +1672,9 @@
     <t>Stress</t>
   </si>
   <si>
-    <t>Only if stress test passed</t>
-  </si>
-  <si>
     <t>PR: PR1, PR: PR2</t>
   </si>
   <si>
-    <t>Only do this if this 'condition' is true</t>
-  </si>
-  <si>
     <t>SCREEN</t>
   </si>
   <si>
@@ -2215,12 +2188,6 @@
     <t>plannedEnrollmentNumber</t>
   </si>
   <si>
-    <t>plannedMinimumAge</t>
-  </si>
-  <si>
-    <t>plannedMaximumAge</t>
-  </si>
-  <si>
     <t>Main</t>
   </si>
   <si>
@@ -2230,13 +2197,133 @@
     <t>COHORT1</t>
   </si>
   <si>
-    <t>30 years</t>
-  </si>
-  <si>
     <t>COHORT2</t>
   </si>
   <si>
-    <t>31 years</t>
+    <t>masking</t>
+  </si>
+  <si>
+    <t>Sponsor=This is the sponsor masking description</t>
+  </si>
+  <si>
+    <t>Investigator=This is the investigator masking statement</t>
+  </si>
+  <si>
+    <t>EXTENSION, ADAPTIVE</t>
+  </si>
+  <si>
+    <t>characteristics</t>
+  </si>
+  <si>
+    <t>Global: 65 %</t>
+  </si>
+  <si>
+    <t>plannedAge</t>
+  </si>
+  <si>
+    <t>18 .. 30 years</t>
+  </si>
+  <si>
+    <t>31 .. 70 years</t>
+  </si>
+  <si>
+    <t>includesHealthySubjects</t>
+  </si>
+  <si>
+    <t>siteName</t>
+  </si>
+  <si>
+    <t>siteDescription</t>
+  </si>
+  <si>
+    <t>siteLabel</t>
+  </si>
+  <si>
+    <t>identifierScheme</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>SITE_ORG_1</t>
+  </si>
+  <si>
+    <t>SITE_1</t>
+  </si>
+  <si>
+    <t>Site One</t>
+  </si>
+  <si>
+    <t>Main Site</t>
+  </si>
+  <si>
+    <t>Site Org</t>
+  </si>
+  <si>
+    <t>SITE_2</t>
+  </si>
+  <si>
+    <t>Site Two</t>
+  </si>
+  <si>
+    <t>Secondary Site</t>
+  </si>
+  <si>
+    <t>SITE_ORG_2</t>
+  </si>
+  <si>
+    <t>Clinical Trials Org</t>
+  </si>
+  <si>
+    <t>SITE_3</t>
+  </si>
+  <si>
+    <t>Only Site</t>
+  </si>
+  <si>
+    <t>Only site</t>
+  </si>
+  <si>
+    <t>context</t>
+  </si>
+  <si>
+    <t>appliesTo</t>
+  </si>
+  <si>
+    <t>COND1</t>
+  </si>
+  <si>
+    <t>COND2</t>
+  </si>
+  <si>
+    <t>COND3</t>
+  </si>
+  <si>
+    <t>Condition for X</t>
+  </si>
+  <si>
+    <t>Condition for Y</t>
+  </si>
+  <si>
+    <t>Condition for Z</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>If this is true</t>
+  </si>
+  <si>
+    <t>If the sky is blue</t>
+  </si>
+  <si>
+    <t>If the sea is red</t>
+  </si>
+  <si>
+    <t>isRareDisease</t>
+  </si>
+  <si>
+    <t>Yes</t>
   </si>
 </sst>
 </file>
@@ -2412,9 +2499,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -2456,6 +2540,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2490,9 +2577,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2530,7 +2617,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2636,7 +2723,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2778,7 +2865,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2789,7 +2876,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection sqref="A1:A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2798,21 +2885,21 @@
     <col min="2" max="2" width="27.5" customWidth="1"/>
     <col min="3" max="3" width="29.6640625" customWidth="1"/>
     <col min="4" max="4" width="18.1640625" customWidth="1"/>
-    <col min="5" max="5" width="21.33203125" style="23" customWidth="1"/>
-    <col min="6" max="6" width="15.1640625" style="23" customWidth="1"/>
+    <col min="5" max="5" width="21.33203125" style="22" customWidth="1"/>
+    <col min="6" max="6" width="15.1640625" style="22" customWidth="1"/>
     <col min="7" max="7" width="47.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
-        <v>395</v>
+      <c r="A1" s="15" t="s">
+        <v>389</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="15" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="10" t="s">
@@ -2820,7 +2907,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="15" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="11" t="s">
@@ -2828,7 +2915,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="15" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="10" t="s">
@@ -2836,7 +2923,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="15" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="10" t="s">
@@ -2844,159 +2931,481 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="B6" s="10" t="s">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A8" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="15" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="B7" s="10" t="s">
+      <c r="B9" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="15" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A8" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="16" t="s">
+      <c r="B10" s="10" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B11" s="10" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="16" t="s">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="B10" s="10" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="16" t="s">
+      <c r="B12" s="10" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="15" t="s">
         <v>92</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="16" t="s">
-        <v>94</v>
       </c>
       <c r="B13" s="11" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="16" t="s">
-        <v>95</v>
+      <c r="A14" s="15" t="s">
+        <v>93</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="16" t="s">
-        <v>465</v>
-      </c>
-      <c r="B16" s="16" t="s">
-        <v>395</v>
-      </c>
-      <c r="C16" s="16" t="s">
+      <c r="A16" s="15" t="s">
+        <v>459</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>389</v>
+      </c>
+      <c r="C16" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="D16" s="16" t="s">
-        <v>466</v>
-      </c>
-      <c r="E16" s="19" t="s">
+      <c r="D16" s="15" t="s">
+        <v>460</v>
+      </c>
+      <c r="E16" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="F16" s="19" t="s">
-        <v>467</v>
-      </c>
-      <c r="G16" s="16" t="s">
-        <v>478</v>
+      <c r="F16" s="18" t="s">
+        <v>461</v>
+      </c>
+      <c r="G16" s="15" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="C17" t="s">
+        <v>463</v>
+      </c>
+      <c r="D17" t="s">
+        <v>464</v>
+      </c>
+      <c r="E17" t="s">
         <v>469</v>
       </c>
-      <c r="D17" t="s">
-        <v>470</v>
-      </c>
-      <c r="E17" t="s">
-        <v>475</v>
-      </c>
-      <c r="F17" s="24">
+      <c r="F17" s="23">
         <v>44911</v>
       </c>
       <c r="G17" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="C18" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="D18" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="E18" t="s">
-        <v>476</v>
-      </c>
-      <c r="F18" s="24">
+        <v>470</v>
+      </c>
+      <c r="F18" s="23">
         <v>44927</v>
       </c>
       <c r="G18" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B76FC554-66AC-E24E-8285-2C16201A5A8B}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{136502A0-3DDE-CC47-9DA7-EB2F3073B24B}">
+  <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
+      <selection pane="bottomRight" activeCell="F5" sqref="F5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="16.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="29.5" style="3" customWidth="1"/>
+    <col min="3" max="3" width="35.83203125" style="1" customWidth="1"/>
+    <col min="4" max="9" width="12.33203125" style="1" customWidth="1"/>
+    <col min="10" max="11" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>389</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="A2" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="I2" s="27" t="s">
+        <v>583</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="A3" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>460</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="H3" s="27" t="s">
+        <v>586</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="13"/>
+      <c r="C4" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="13"/>
+      <c r="C5" s="13" t="s">
+        <v>550</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="A6" s="13"/>
+      <c r="C6" s="13" t="s">
+        <v>552</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="27" t="s">
+        <v>585</v>
+      </c>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="13" t="s">
+        <v>553</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="13" t="s">
+        <v>554</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>598</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>537</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>603</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>602</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>594</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>595</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3019,197 +3428,197 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
-        <v>395</v>
-      </c>
-      <c r="B1" s="19" t="s">
+      <c r="A1" s="18" t="s">
+        <v>389</v>
+      </c>
+      <c r="B1" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="19" t="s">
-        <v>466</v>
-      </c>
-      <c r="D1" s="19" t="s">
+      <c r="C1" s="18" t="s">
+        <v>460</v>
+      </c>
+      <c r="D1" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="19" t="s">
-        <v>564</v>
-      </c>
-      <c r="F1" s="19" t="s">
-        <v>565</v>
-      </c>
-      <c r="G1" s="19" t="s">
-        <v>566</v>
-      </c>
-      <c r="H1" s="19" t="s">
-        <v>567</v>
-      </c>
-      <c r="I1" s="19" t="s">
-        <v>568</v>
+      <c r="E1" s="18" t="s">
+        <v>555</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>556</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>557</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>558</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>559</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="B2" t="s">
-        <v>570</v>
+        <v>561</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>571</v>
+        <v>562</v>
       </c>
       <c r="E2" t="s">
-        <v>547</v>
+        <v>538</v>
       </c>
       <c r="F2" t="s">
-        <v>548</v>
+        <v>539</v>
       </c>
       <c r="G2" t="s">
-        <v>572</v>
+        <v>563</v>
       </c>
       <c r="H2" t="s">
-        <v>573</v>
+        <v>564</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>574</v>
+        <v>565</v>
       </c>
       <c r="B3" t="s">
-        <v>575</v>
+        <v>566</v>
       </c>
       <c r="C3" t="s">
-        <v>576</v>
+        <v>567</v>
       </c>
       <c r="D3" t="s">
-        <v>571</v>
+        <v>562</v>
       </c>
       <c r="E3" t="s">
-        <v>548</v>
+        <v>539</v>
       </c>
       <c r="F3" t="s">
-        <v>549</v>
+        <v>540</v>
       </c>
       <c r="G3" t="s">
         <v>7</v>
       </c>
       <c r="H3" t="s">
-        <v>573</v>
+        <v>564</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>577</v>
+        <v>568</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>578</v>
+        <v>569</v>
       </c>
       <c r="B4" t="s">
-        <v>579</v>
+        <v>570</v>
       </c>
       <c r="C4" t="s">
-        <v>554</v>
+        <v>545</v>
       </c>
       <c r="D4" t="s">
-        <v>580</v>
+        <v>571</v>
       </c>
       <c r="E4" t="s">
-        <v>549</v>
+        <v>540</v>
       </c>
       <c r="F4" t="s">
-        <v>549</v>
+        <v>540</v>
       </c>
       <c r="G4" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>582</v>
+        <v>573</v>
       </c>
       <c r="B5" t="s">
-        <v>583</v>
+        <v>574</v>
       </c>
       <c r="C5" t="s">
-        <v>555</v>
+        <v>546</v>
       </c>
       <c r="D5" t="s">
-        <v>584</v>
+        <v>575</v>
       </c>
       <c r="E5" t="s">
-        <v>550</v>
+        <v>541</v>
       </c>
       <c r="F5" t="s">
-        <v>549</v>
+        <v>540</v>
       </c>
       <c r="G5" t="s">
-        <v>585</v>
+        <v>576</v>
       </c>
       <c r="H5" t="s">
-        <v>573</v>
+        <v>564</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>586</v>
+        <v>577</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>587</v>
+        <v>578</v>
       </c>
       <c r="B6" t="s">
-        <v>597</v>
+        <v>588</v>
       </c>
       <c r="C6" t="s">
-        <v>590</v>
+        <v>581</v>
       </c>
       <c r="D6" t="s">
-        <v>584</v>
+        <v>575</v>
       </c>
       <c r="E6" t="s">
-        <v>591</v>
+        <v>582</v>
       </c>
       <c r="F6" t="s">
-        <v>549</v>
+        <v>540</v>
       </c>
       <c r="G6" t="s">
-        <v>598</v>
+        <v>589</v>
       </c>
       <c r="H6" t="s">
-        <v>573</v>
+        <v>564</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>586</v>
+        <v>577</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>671</v>
+        <v>662</v>
       </c>
       <c r="B7" t="s">
-        <v>588</v>
+        <v>579</v>
       </c>
       <c r="C7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D7" t="s">
-        <v>584</v>
+        <v>575</v>
       </c>
       <c r="E7" t="s">
-        <v>552</v>
+        <v>543</v>
       </c>
       <c r="F7" t="s">
-        <v>549</v>
+        <v>540</v>
       </c>
       <c r="G7" t="s">
-        <v>599</v>
+        <v>590</v>
       </c>
       <c r="H7" t="s">
-        <v>573</v>
+        <v>564</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>589</v>
+        <v>580</v>
       </c>
     </row>
   </sheetData>
@@ -3218,11 +3627,112 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85B66E51-0DD3-3746-8869-93EFDF6EEF7D}">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.1640625" customWidth="1"/>
+    <col min="2" max="2" width="15.5" customWidth="1"/>
+    <col min="3" max="3" width="9.5" customWidth="1"/>
+    <col min="4" max="4" width="20.83203125" customWidth="1"/>
+    <col min="5" max="6" width="17.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="18" t="s">
+        <v>389</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>460</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>741</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>743</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>746</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>750</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>598</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>744</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>747</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>751</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>598</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>745</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>748</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>749</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>752</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" t="s">
+        <v>603</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA8389B3-D1BB-1047-BA06-7E793B938DBA}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3230,79 +3740,65 @@
     <col min="1" max="1" width="17.5" customWidth="1"/>
     <col min="2" max="2" width="38.83203125" customWidth="1"/>
     <col min="3" max="3" width="16.6640625" customWidth="1"/>
-    <col min="4" max="4" width="19.33203125" style="7" customWidth="1"/>
-    <col min="5" max="5" width="29.6640625" customWidth="1"/>
-    <col min="6" max="6" width="14.83203125" customWidth="1"/>
+    <col min="4" max="4" width="14.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
-        <v>395</v>
-      </c>
-      <c r="B1" s="19" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="18" t="s">
+        <v>389</v>
+      </c>
+      <c r="B1" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="19" t="s">
-        <v>466</v>
-      </c>
-      <c r="D1" s="25" t="s">
-        <v>196</v>
-      </c>
-      <c r="E1" s="19" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C1" s="18" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>607</v>
+        <v>598</v>
       </c>
       <c r="B3" t="s">
-        <v>608</v>
+        <v>599</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>612</v>
+        <v>603</v>
       </c>
       <c r="B4" t="s">
-        <v>609</v>
+        <v>600</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>610</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="E4" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>603</v>
+        <v>594</v>
       </c>
       <c r="B5" t="s">
-        <v>605</v>
+        <v>596</v>
       </c>
       <c r="C5" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -3312,60 +3808,70 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E548DFC1-EB0E-374B-95D2-A04104B745FB}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.6640625" customWidth="1"/>
     <col min="2" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="31.33203125" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" style="7" customWidth="1"/>
+    <col min="5" max="5" width="31.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
-        <v>395</v>
-      </c>
-      <c r="B1" s="19" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="18" t="s">
+        <v>389</v>
+      </c>
+      <c r="B1" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="19" t="s">
-        <v>466</v>
-      </c>
-      <c r="D1" s="19" t="s">
+      <c r="C1" s="18" t="s">
+        <v>460</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>753</v>
+      </c>
+      <c r="E1" s="18" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" t="s">
+        <v>665</v>
+      </c>
+      <c r="C2" t="s">
+        <v>663</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>754</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>65</v>
       </c>
-      <c r="B2" t="s">
-        <v>674</v>
-      </c>
-      <c r="C2" t="s">
-        <v>672</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>67</v>
-      </c>
       <c r="B3" t="s">
-        <v>675</v>
+        <v>666</v>
       </c>
       <c r="C3" t="s">
-        <v>673</v>
-      </c>
-      <c r="D3" s="6" t="s">
+        <v>664</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>46</v>
       </c>
     </row>
@@ -3374,7 +3880,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86117B3B-3975-3B4E-8ED4-B6979F031A31}">
   <dimension ref="A1:S3"/>
   <sheetViews>
@@ -3407,180 +3913,180 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
-        <v>395</v>
-      </c>
-      <c r="B1" s="19" t="s">
+      <c r="A1" s="18" t="s">
+        <v>389</v>
+      </c>
+      <c r="B1" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="19" t="s">
-        <v>466</v>
-      </c>
-      <c r="D1" s="19" t="s">
+      <c r="C1" s="18" t="s">
+        <v>460</v>
+      </c>
+      <c r="D1" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="18" t="s">
+        <v>667</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>694</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>668</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>669</v>
+      </c>
+      <c r="J1" s="18" t="s">
+        <v>673</v>
+      </c>
+      <c r="K1" s="18" t="s">
+        <v>674</v>
+      </c>
+      <c r="L1" s="18" t="s">
+        <v>675</v>
+      </c>
+      <c r="M1" s="18" t="s">
+        <v>670</v>
+      </c>
+      <c r="N1" s="18" t="s">
+        <v>671</v>
+      </c>
+      <c r="O1" s="18" t="s">
+        <v>672</v>
+      </c>
+      <c r="P1" s="18" t="s">
         <v>676</v>
       </c>
-      <c r="F1" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="G1" s="19" t="s">
-        <v>703</v>
-      </c>
-      <c r="H1" s="19" t="s">
+      <c r="Q1" s="18" t="s">
         <v>677</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="R1" s="18" t="s">
         <v>678</v>
       </c>
-      <c r="J1" s="19" t="s">
-        <v>682</v>
-      </c>
-      <c r="K1" s="19" t="s">
-        <v>683</v>
-      </c>
-      <c r="L1" s="19" t="s">
-        <v>684</v>
-      </c>
-      <c r="M1" s="19" t="s">
+      <c r="S1" s="18" t="s">
         <v>679</v>
-      </c>
-      <c r="N1" s="19" t="s">
-        <v>680</v>
-      </c>
-      <c r="O1" s="19" t="s">
-        <v>681</v>
-      </c>
-      <c r="P1" s="19" t="s">
-        <v>685</v>
-      </c>
-      <c r="Q1" s="19" t="s">
-        <v>686</v>
-      </c>
-      <c r="R1" s="19" t="s">
-        <v>687</v>
-      </c>
-      <c r="S1" s="19" t="s">
-        <v>688</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B2" t="s">
+        <v>680</v>
+      </c>
+      <c r="C2" t="s">
+        <v>681</v>
+      </c>
+      <c r="D2" t="s">
+        <v>682</v>
+      </c>
+      <c r="E2" t="s">
+        <v>685</v>
+      </c>
+      <c r="F2" s="33" t="s">
+        <v>697</v>
+      </c>
+      <c r="G2" t="s">
+        <v>683</v>
+      </c>
+      <c r="H2" t="s">
+        <v>686</v>
+      </c>
+      <c r="I2" t="s">
+        <v>684</v>
+      </c>
+      <c r="J2" t="s">
+        <v>687</v>
+      </c>
+      <c r="K2" t="s">
+        <v>688</v>
+      </c>
+      <c r="L2" t="s">
         <v>689</v>
       </c>
-      <c r="C2" t="s">
+      <c r="M2" t="s">
+        <v>695</v>
+      </c>
+      <c r="N2" t="s">
         <v>690</v>
       </c>
-      <c r="D2" t="s">
+      <c r="O2" t="s">
+        <v>696</v>
+      </c>
+      <c r="P2" t="s">
         <v>691</v>
       </c>
-      <c r="E2" t="s">
-        <v>694</v>
-      </c>
-      <c r="F2" s="34" t="s">
-        <v>706</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="Q2" t="s">
+        <v>130</v>
+      </c>
+      <c r="R2" t="s">
         <v>692</v>
       </c>
-      <c r="H2" t="s">
-        <v>695</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="S2" s="32" t="s">
         <v>693</v>
-      </c>
-      <c r="J2" t="s">
-        <v>696</v>
-      </c>
-      <c r="K2" t="s">
-        <v>697</v>
-      </c>
-      <c r="L2" t="s">
-        <v>698</v>
-      </c>
-      <c r="M2" t="s">
-        <v>704</v>
-      </c>
-      <c r="N2" t="s">
-        <v>699</v>
-      </c>
-      <c r="O2" t="s">
-        <v>705</v>
-      </c>
-      <c r="P2" t="s">
-        <v>700</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>134</v>
-      </c>
-      <c r="R2" t="s">
-        <v>701</v>
-      </c>
-      <c r="S2" s="33" t="s">
-        <v>702</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B3" t="s">
-        <v>707</v>
+        <v>698</v>
       </c>
       <c r="C3" t="s">
-        <v>708</v>
+        <v>699</v>
       </c>
       <c r="D3" t="s">
-        <v>691</v>
+        <v>682</v>
       </c>
       <c r="E3" t="s">
-        <v>709</v>
-      </c>
-      <c r="F3" s="34" t="s">
-        <v>706</v>
+        <v>700</v>
+      </c>
+      <c r="F3" s="33" t="s">
+        <v>697</v>
       </c>
       <c r="G3" t="s">
+        <v>683</v>
+      </c>
+      <c r="H3" t="s">
+        <v>701</v>
+      </c>
+      <c r="I3" t="s">
+        <v>684</v>
+      </c>
+      <c r="J3" t="s">
+        <v>702</v>
+      </c>
+      <c r="K3" t="s">
+        <v>703</v>
+      </c>
+      <c r="L3" t="s">
+        <v>704</v>
+      </c>
+      <c r="M3" t="s">
+        <v>695</v>
+      </c>
+      <c r="N3" t="s">
+        <v>690</v>
+      </c>
+      <c r="O3" t="s">
+        <v>696</v>
+      </c>
+      <c r="P3" t="s">
+        <v>705</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>130</v>
+      </c>
+      <c r="R3" t="s">
         <v>692</v>
       </c>
-      <c r="H3" t="s">
-        <v>710</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="S3" s="32" t="s">
         <v>693</v>
-      </c>
-      <c r="J3" t="s">
-        <v>711</v>
-      </c>
-      <c r="K3" t="s">
-        <v>712</v>
-      </c>
-      <c r="L3" t="s">
-        <v>713</v>
-      </c>
-      <c r="M3" t="s">
-        <v>704</v>
-      </c>
-      <c r="N3" t="s">
-        <v>699</v>
-      </c>
-      <c r="O3" t="s">
-        <v>705</v>
-      </c>
-      <c r="P3" t="s">
-        <v>714</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>134</v>
-      </c>
-      <c r="R3" t="s">
-        <v>701</v>
-      </c>
-      <c r="S3" s="33" t="s">
-        <v>702</v>
       </c>
     </row>
   </sheetData>
@@ -3588,12 +4094,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C037A932-CB5B-8D43-956E-5F5C367E07FC}">
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3603,45 +4109,46 @@
     <col min="4" max="4" width="8.5" customWidth="1"/>
     <col min="5" max="5" width="24.6640625" customWidth="1"/>
     <col min="6" max="6" width="24.5" customWidth="1"/>
-    <col min="7" max="8" width="19.1640625" customWidth="1"/>
-    <col min="9" max="9" width="23.33203125" customWidth="1"/>
+    <col min="7" max="7" width="19.1640625" customWidth="1"/>
+    <col min="8" max="8" width="23.33203125" customWidth="1"/>
+    <col min="9" max="9" width="23.33203125" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="17" t="s">
-        <v>715</v>
-      </c>
-      <c r="B1" s="17" t="s">
-        <v>395</v>
-      </c>
-      <c r="C1" s="17" t="s">
+      <c r="A1" s="16" t="s">
+        <v>706</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>389</v>
+      </c>
+      <c r="C1" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="17" t="s">
-        <v>466</v>
-      </c>
-      <c r="E1" s="17" t="s">
-        <v>716</v>
-      </c>
-      <c r="F1" s="17" t="s">
-        <v>717</v>
-      </c>
-      <c r="G1" s="17" t="s">
-        <v>718</v>
-      </c>
-      <c r="H1" s="17" t="s">
+      <c r="D1" s="16" t="s">
+        <v>460</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>707</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>708</v>
+      </c>
+      <c r="G1" s="16" t="s">
         <v>719</v>
       </c>
-      <c r="I1" s="17" t="s">
-        <v>49</v>
+      <c r="H1" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="I1" s="34" t="s">
+        <v>722</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>720</v>
+        <v>709</v>
       </c>
       <c r="B2" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="E2">
         <v>100</v>
@@ -3649,37 +4156,39 @@
       <c r="F2">
         <v>120</v>
       </c>
-      <c r="H2" s="6"/>
-      <c r="I2" t="s">
-        <v>50</v>
+      <c r="H2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>721</v>
+        <v>710</v>
       </c>
       <c r="B3" t="s">
-        <v>722</v>
+        <v>711</v>
       </c>
       <c r="G3" t="s">
-        <v>48</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>723</v>
+        <v>720</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>710</v>
+      </c>
+      <c r="B4" t="s">
+        <v>712</v>
+      </c>
+      <c r="G4" t="s">
         <v>721</v>
       </c>
-      <c r="B4" t="s">
-        <v>724</v>
-      </c>
-      <c r="G4" t="s">
-        <v>725</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>51</v>
+      <c r="I4" s="7" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -3687,7 +4196,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B908C5D6-C6A1-4043-A49A-69C599CFBAE9}">
   <dimension ref="A1:M26"/>
   <sheetViews>
@@ -3712,106 +4221,106 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
-        <v>532</v>
-      </c>
-      <c r="B1" s="19" t="s">
+      <c r="A1" s="18" t="s">
+        <v>525</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>515</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>518</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>615</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>514</v>
+      </c>
+      <c r="H1" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="19" t="s">
-        <v>522</v>
-      </c>
-      <c r="D1" s="19" t="s">
-        <v>525</v>
-      </c>
-      <c r="E1" s="19" t="s">
+      <c r="I1" s="18" t="s">
+        <v>516</v>
+      </c>
+      <c r="J1" s="18" t="s">
+        <v>519</v>
+      </c>
+      <c r="K1" s="18" t="s">
+        <v>517</v>
+      </c>
+      <c r="L1" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="F1" s="19" t="s">
-        <v>624</v>
-      </c>
-      <c r="G1" s="19" t="s">
-        <v>521</v>
-      </c>
-      <c r="H1" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="I1" s="19" t="s">
-        <v>523</v>
-      </c>
-      <c r="J1" s="19" t="s">
-        <v>526</v>
-      </c>
-      <c r="K1" s="19" t="s">
-        <v>524</v>
-      </c>
-      <c r="L1" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="M1" s="19" t="s">
-        <v>625</v>
+      <c r="M1" s="18" t="s">
+        <v>616</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="C2" s="12"/>
       <c r="D2" s="12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F2" s="12"/>
       <c r="G2" s="12" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="I2" s="12"/>
       <c r="J2" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K2" s="10"/>
       <c r="L2" s="12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="85" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="C3" s="12"/>
       <c r="D3" s="12" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>626</v>
+        <v>617</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="I3" s="12"/>
       <c r="J3" s="12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K3" s="10"/>
       <c r="L3" s="12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="34" x14ac:dyDescent="0.2">
@@ -3822,18 +4331,18 @@
       <c r="E4" s="12"/>
       <c r="F4" s="12"/>
       <c r="G4" s="12" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="I4" s="12"/>
       <c r="J4" s="12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K4" s="10"/>
       <c r="L4" s="12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
@@ -4129,137 +4638,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E21BFD86-228C-9E4F-A6E0-17C33821FA3D}">
-  <dimension ref="A1:B14"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="40" customWidth="1"/>
-    <col min="2" max="2" width="92.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
-        <v>650</v>
-      </c>
-      <c r="B1" s="38"/>
-    </row>
-    <row r="2" spans="1:2" ht="19" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
-        <v>655</v>
-      </c>
-      <c r="B2" s="30" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="32" t="s">
-        <v>638</v>
-      </c>
-      <c r="B3" s="29" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="32" t="s">
-        <v>639</v>
-      </c>
-      <c r="B4" s="29" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="32" t="s">
-        <v>640</v>
-      </c>
-      <c r="B5" s="29" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="32" t="s">
-        <v>642</v>
-      </c>
-      <c r="B6" s="29" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="32" t="s">
-        <v>641</v>
-      </c>
-      <c r="B7" s="29" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="21" x14ac:dyDescent="0.25">
-      <c r="A10" s="39" t="s">
-        <v>651</v>
-      </c>
-      <c r="B10" s="39"/>
-    </row>
-    <row r="11" spans="1:2" ht="19" x14ac:dyDescent="0.25">
-      <c r="A11" s="31" t="s">
-        <v>655</v>
-      </c>
-      <c r="B11" s="30" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="32" t="s">
-        <v>657</v>
-      </c>
-      <c r="B12" s="29" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="32" t="s">
-        <v>648</v>
-      </c>
-      <c r="B13" s="29" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="32" t="s">
-        <v>649</v>
-      </c>
-      <c r="B14" s="29" t="s">
-        <v>654</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A10:B10"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" xr:uid="{8095E3C2-5E8C-CD42-9844-EF750C313C05}"/>
-    <hyperlink ref="B4" r:id="rId2" xr:uid="{21593E62-5188-8D40-8EDA-0B7363B2CE1D}"/>
-    <hyperlink ref="B5" r:id="rId3" xr:uid="{E1F9617B-866B-F347-8AE6-4F68B78A1880}"/>
-    <hyperlink ref="B6" r:id="rId4" xr:uid="{5C05D2D5-DDA4-424E-9721-32B897827DE4}"/>
-    <hyperlink ref="B7" r:id="rId5" xr:uid="{93A65D4B-7872-D845-BE5F-B7B119471ECA}"/>
-    <hyperlink ref="B12" r:id="rId6" xr:uid="{C42104DA-D938-D547-A04F-2E7BDE4D535E}"/>
-    <hyperlink ref="B13" r:id="rId7" xr:uid="{AA302D20-8437-9340-B21E-D6FAA7FE938A}"/>
-    <hyperlink ref="B14" r:id="rId8" xr:uid="{89159574-3276-2C4D-AF11-A432372C1C35}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBFC82B4-C495-A142-993D-B6A47D77A4C3}">
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4275,55 +4659,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="27" t="s">
-        <v>395</v>
-      </c>
-      <c r="B1" s="27" t="s">
+      <c r="A1" s="26" t="s">
+        <v>389</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="G1" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="H1" s="26" t="s">
         <v>75</v>
-      </c>
-      <c r="C1" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="D1" s="27" t="s">
-        <v>76</v>
-      </c>
-      <c r="E1" s="27" t="s">
-        <v>84</v>
-      </c>
-      <c r="F1" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="G1" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="H1" s="27" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="E2" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="F2" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="H2" s="12" t="s">
         <v>80</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -4335,7 +4719,7 @@
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
       <c r="H3" s="10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -4347,33 +4731,33 @@
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
       <c r="H4" s="10" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>527</v>
+      </c>
+      <c r="E5" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>534</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>114</v>
-      </c>
       <c r="F5" s="10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
     </row>
   </sheetData>
@@ -4383,10 +4767,10 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D608A778-255D-4443-A7EA-03049F1FC98F}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="F1" sqref="F1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4396,75 +4780,61 @@
     <col min="3" max="3" width="16.83203125" customWidth="1"/>
     <col min="4" max="4" width="13.83203125" customWidth="1"/>
     <col min="5" max="5" width="24.6640625" customWidth="1"/>
-    <col min="6" max="6" width="22.5" style="7" customWidth="1"/>
-    <col min="7" max="7" width="29.6640625" customWidth="1"/>
-    <col min="8" max="8" width="14.83203125" customWidth="1"/>
+    <col min="6" max="6" width="14.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>43</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="D1" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>126</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="B2" t="s">
+        <v>533</v>
+      </c>
+      <c r="C2" t="s">
+        <v>533</v>
+      </c>
+      <c r="D2" t="s">
+        <v>536</v>
+      </c>
+      <c r="E2" t="s">
         <v>127</v>
       </c>
-      <c r="F1" s="15" t="s">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>128</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="B3" t="s">
+        <v>535</v>
+      </c>
+      <c r="C3" t="s">
+        <v>534</v>
+      </c>
+      <c r="D3" t="s">
+        <v>536</v>
+      </c>
+      <c r="E3" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>130</v>
-      </c>
-      <c r="B2" t="s">
-        <v>540</v>
-      </c>
-      <c r="C2" t="s">
-        <v>540</v>
-      </c>
-      <c r="D2" t="s">
-        <v>543</v>
-      </c>
-      <c r="E2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>132</v>
-      </c>
-      <c r="B3" t="s">
-        <v>542</v>
-      </c>
-      <c r="C3" t="s">
-        <v>541</v>
-      </c>
-      <c r="D3" t="s">
-        <v>543</v>
-      </c>
-      <c r="E3" t="s">
-        <v>133</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="G3" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -4480,7 +4850,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4494,23 +4864,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="25" t="s">
-        <v>479</v>
-      </c>
-      <c r="B1" s="16" t="s">
-        <v>480</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>481</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>482</v>
-      </c>
-      <c r="E1" s="16" t="s">
-        <v>483</v>
-      </c>
-      <c r="F1" s="26" t="s">
-        <v>492</v>
+      <c r="A1" s="24" t="s">
+        <v>473</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>474</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>475</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>476</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>477</v>
+      </c>
+      <c r="F1" s="25" t="s">
+        <v>486</v>
       </c>
       <c r="G1" s="10"/>
     </row>
@@ -4519,17 +4889,17 @@
         <v>4</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="E2" s="10"/>
       <c r="F2" s="10" t="s">
-        <v>495</v>
+        <v>718</v>
       </c>
       <c r="G2" s="10"/>
     </row>
@@ -4538,17 +4908,17 @@
         <v>3</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="E3" s="10"/>
       <c r="F3" s="10" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="G3" s="10"/>
     </row>
@@ -4557,19 +4927,19 @@
         <v>2</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D4" s="10" t="s">
+        <v>484</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>485</v>
+      </c>
+      <c r="F4" s="10" t="s">
         <v>490</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>491</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>497</v>
       </c>
       <c r="G4" s="10"/>
     </row>
@@ -4578,17 +4948,17 @@
         <v>1</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="E5" s="10"/>
       <c r="F5" s="10" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="G5" s="10"/>
     </row>
@@ -4618,176 +4988,176 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
-        <v>395</v>
-      </c>
-      <c r="B1" s="19" t="s">
+      <c r="A1" s="18" t="s">
+        <v>389</v>
+      </c>
+      <c r="B1" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="19" t="s">
-        <v>466</v>
-      </c>
-      <c r="D1" s="19" t="s">
+      <c r="C1" s="18" t="s">
+        <v>460</v>
+      </c>
+      <c r="D1" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="19" t="s">
-        <v>538</v>
-      </c>
-      <c r="F1" s="19" t="s">
-        <v>539</v>
-      </c>
-      <c r="G1" s="19" t="s">
-        <v>136</v>
-      </c>
-      <c r="H1" s="19" t="s">
-        <v>137</v>
-      </c>
-      <c r="I1" s="25" t="s">
-        <v>568</v>
+      <c r="E1" s="18" t="s">
+        <v>531</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>532</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="I1" s="24" t="s">
+        <v>559</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>147</v>
-      </c>
       <c r="I2" s="7" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>574</v>
+        <v>565</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>555</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>145</v>
-      </c>
       <c r="I5" s="7" t="s">
-        <v>582</v>
+        <v>573</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>600</v>
+        <v>591</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>590</v>
+        <v>581</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>587</v>
+        <v>578</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>596</v>
+        <v>587</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>602</v>
+        <v>593</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>601</v>
+        <v>592</v>
       </c>
       <c r="D7" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>146</v>
-      </c>
       <c r="I7" s="1" t="s">
-        <v>671</v>
+        <v>662</v>
       </c>
     </row>
   </sheetData>
@@ -4814,105 +5184,105 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
-        <v>395</v>
-      </c>
-      <c r="B1" s="19" t="s">
-        <v>157</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>535</v>
-      </c>
-      <c r="D1" s="19" t="s">
-        <v>136</v>
-      </c>
-      <c r="E1" s="19" t="s">
-        <v>137</v>
+      <c r="A1" s="18" t="s">
+        <v>389</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>528</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>173</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>174</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -4926,7 +5296,7 @@
   <dimension ref="A1:D139"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4938,1240 +5308,1240 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
-        <v>435</v>
-      </c>
-      <c r="B1" s="22" t="s">
-        <v>395</v>
-      </c>
-      <c r="C1" s="20" t="s">
-        <v>199</v>
-      </c>
-      <c r="D1" s="20" t="s">
-        <v>200</v>
+      <c r="A1" s="21" t="s">
+        <v>429</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>389</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
-        <v>616</v>
-      </c>
-      <c r="B2" s="21"/>
+        <v>607</v>
+      </c>
+      <c r="B2" s="20"/>
       <c r="C2" s="9" t="s">
-        <v>615</v>
+        <v>606</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>617</v>
+        <v>608</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="21"/>
+      <c r="B3" s="20"/>
       <c r="C3" s="9" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>630</v>
+        <v>621</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
-        <v>331</v>
-      </c>
-      <c r="B14" s="21"/>
+        <v>325</v>
+      </c>
+      <c r="B14" s="20"/>
       <c r="C14" s="9" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
-        <v>341</v>
-      </c>
-      <c r="B15" s="21"/>
+        <v>335</v>
+      </c>
+      <c r="B15" s="20"/>
       <c r="C15" s="9" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
-        <v>342</v>
-      </c>
-      <c r="B16" s="21"/>
+        <v>336</v>
+      </c>
+      <c r="B16" s="20"/>
       <c r="C16" s="9" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
-        <v>343</v>
-      </c>
-      <c r="B17" s="21"/>
+        <v>337</v>
+      </c>
+      <c r="B17" s="20"/>
       <c r="C17" s="9" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
-        <v>344</v>
-      </c>
-      <c r="B18" s="21"/>
+        <v>338</v>
+      </c>
+      <c r="B18" s="20"/>
       <c r="C18" s="9" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
-        <v>418</v>
-      </c>
-      <c r="B19" s="21"/>
+        <v>412</v>
+      </c>
+      <c r="B19" s="20"/>
       <c r="C19" s="9" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
-        <v>419</v>
-      </c>
-      <c r="B20" s="21"/>
+        <v>413</v>
+      </c>
+      <c r="B20" s="20"/>
       <c r="C20" s="9" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
-        <v>396</v>
-      </c>
-      <c r="B21" s="21"/>
+        <v>390</v>
+      </c>
+      <c r="B21" s="20"/>
       <c r="C21" s="9" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
-        <v>420</v>
-      </c>
-      <c r="B22" s="21"/>
+        <v>414</v>
+      </c>
+      <c r="B22" s="20"/>
       <c r="C22" s="9" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
-        <v>421</v>
-      </c>
-      <c r="B23" s="21"/>
+        <v>415</v>
+      </c>
+      <c r="B23" s="20"/>
       <c r="C23" s="9" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="B24" s="21"/>
+        <v>416</v>
+      </c>
+      <c r="B24" s="20"/>
       <c r="C24" s="9" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>618</v>
+        <v>609</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
-        <v>423</v>
-      </c>
-      <c r="B25" s="21"/>
+        <v>417</v>
+      </c>
+      <c r="B25" s="20"/>
       <c r="C25" s="9" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>619</v>
+        <v>610</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
-        <v>424</v>
-      </c>
-      <c r="B26" s="21"/>
+        <v>418</v>
+      </c>
+      <c r="B26" s="20"/>
       <c r="C26" s="9" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
-        <v>387</v>
-      </c>
-      <c r="B27" s="21"/>
+        <v>381</v>
+      </c>
+      <c r="B27" s="20"/>
       <c r="C27" s="9" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
-        <v>388</v>
-      </c>
-      <c r="B28" s="21"/>
+        <v>382</v>
+      </c>
+      <c r="B28" s="20"/>
       <c r="C28" s="9" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
-        <v>389</v>
-      </c>
-      <c r="B29" s="21"/>
+        <v>383</v>
+      </c>
+      <c r="B29" s="20"/>
       <c r="C29" s="9" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
-        <v>390</v>
-      </c>
-      <c r="B30" s="21"/>
+        <v>384</v>
+      </c>
+      <c r="B30" s="20"/>
       <c r="C30" s="9" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="10" t="s">
-        <v>425</v>
-      </c>
-      <c r="B31" s="21"/>
+        <v>419</v>
+      </c>
+      <c r="B31" s="20"/>
       <c r="C31" s="9" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="10" t="s">
-        <v>397</v>
-      </c>
-      <c r="B32" s="21"/>
+        <v>391</v>
+      </c>
+      <c r="B32" s="20"/>
       <c r="C32" s="9" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="10" t="s">
-        <v>426</v>
-      </c>
-      <c r="B33" s="21"/>
+        <v>420</v>
+      </c>
+      <c r="B33" s="20"/>
       <c r="C33" s="9" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="10" t="s">
-        <v>427</v>
-      </c>
-      <c r="B34" s="21"/>
+        <v>421</v>
+      </c>
+      <c r="B34" s="20"/>
       <c r="C34" s="9" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="10" t="s">
-        <v>428</v>
-      </c>
-      <c r="B35" s="21"/>
+        <v>422</v>
+      </c>
+      <c r="B35" s="20"/>
       <c r="C35" s="9" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="10" t="s">
-        <v>345</v>
-      </c>
-      <c r="B36" s="21"/>
+        <v>339</v>
+      </c>
+      <c r="B36" s="20"/>
       <c r="C36" s="9" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="10" t="s">
-        <v>429</v>
-      </c>
-      <c r="B37" s="21"/>
+        <v>423</v>
+      </c>
+      <c r="B37" s="20"/>
       <c r="C37" s="9" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="10" t="s">
-        <v>430</v>
-      </c>
-      <c r="B38" s="21"/>
+        <v>424</v>
+      </c>
+      <c r="B38" s="20"/>
       <c r="C38" s="9" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="10" t="s">
-        <v>346</v>
-      </c>
-      <c r="B39" s="21"/>
+        <v>340</v>
+      </c>
+      <c r="B39" s="20"/>
       <c r="C39" s="9" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="10" t="s">
-        <v>347</v>
-      </c>
-      <c r="B40" s="21"/>
+        <v>341</v>
+      </c>
+      <c r="B40" s="20"/>
       <c r="C40" s="9" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="10" t="s">
-        <v>348</v>
-      </c>
-      <c r="B41" s="21"/>
+        <v>342</v>
+      </c>
+      <c r="B41" s="20"/>
       <c r="C41" s="9" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="10" t="s">
-        <v>431</v>
-      </c>
-      <c r="B42" s="21"/>
+        <v>425</v>
+      </c>
+      <c r="B42" s="20"/>
       <c r="C42" s="9" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="10" t="s">
-        <v>349</v>
-      </c>
-      <c r="B43" s="21"/>
+        <v>343</v>
+      </c>
+      <c r="B43" s="20"/>
       <c r="C43" s="9" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="10" t="s">
-        <v>350</v>
-      </c>
-      <c r="B44" s="21"/>
+        <v>344</v>
+      </c>
+      <c r="B44" s="20"/>
       <c r="C44" s="9" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="10" t="s">
-        <v>351</v>
-      </c>
-      <c r="B45" s="21"/>
+        <v>345</v>
+      </c>
+      <c r="B45" s="20"/>
       <c r="C45" s="9" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="10" t="s">
-        <v>432</v>
-      </c>
-      <c r="B46" s="21"/>
+        <v>426</v>
+      </c>
+      <c r="B46" s="20"/>
       <c r="C46" s="9" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="10" t="s">
-        <v>433</v>
-      </c>
-      <c r="B47" s="21"/>
+        <v>427</v>
+      </c>
+      <c r="B47" s="20"/>
       <c r="C47" s="9" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="10" t="s">
-        <v>352</v>
-      </c>
-      <c r="B48" s="21"/>
+        <v>346</v>
+      </c>
+      <c r="B48" s="20"/>
       <c r="C48" s="9" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="10" t="s">
-        <v>353</v>
-      </c>
-      <c r="B49" s="21"/>
+        <v>347</v>
+      </c>
+      <c r="B49" s="20"/>
       <c r="C49" s="9" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="10" t="s">
-        <v>354</v>
-      </c>
-      <c r="B50" s="21"/>
+        <v>348</v>
+      </c>
+      <c r="B50" s="20"/>
       <c r="C50" s="9" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="10" t="s">
-        <v>355</v>
-      </c>
-      <c r="B51" s="21"/>
+        <v>349</v>
+      </c>
+      <c r="B51" s="20"/>
       <c r="C51" s="9" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A52" s="10" t="s">
-        <v>398</v>
-      </c>
-      <c r="B52" s="21"/>
+        <v>392</v>
+      </c>
+      <c r="B52" s="20"/>
       <c r="C52" s="9" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A53" s="10" t="s">
-        <v>434</v>
-      </c>
-      <c r="B53" s="21"/>
+        <v>428</v>
+      </c>
+      <c r="B53" s="20"/>
       <c r="C53" s="9" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A54" s="10" t="s">
-        <v>356</v>
-      </c>
-      <c r="B54" s="21"/>
+        <v>350</v>
+      </c>
+      <c r="B54" s="20"/>
       <c r="C54" s="9" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A55" s="10" t="s">
-        <v>357</v>
-      </c>
-      <c r="B55" s="21"/>
+        <v>351</v>
+      </c>
+      <c r="B55" s="20"/>
       <c r="C55" s="9" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="10" t="s">
-        <v>358</v>
-      </c>
-      <c r="B56" s="21"/>
+        <v>352</v>
+      </c>
+      <c r="B56" s="20"/>
       <c r="C56" s="9" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="10" t="s">
-        <v>436</v>
-      </c>
-      <c r="B57" s="21"/>
+        <v>430</v>
+      </c>
+      <c r="B57" s="20"/>
       <c r="C57" s="9" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="10" t="s">
-        <v>437</v>
-      </c>
-      <c r="B58" s="21"/>
+        <v>431</v>
+      </c>
+      <c r="B58" s="20"/>
       <c r="C58" s="9" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="10" t="s">
-        <v>438</v>
-      </c>
-      <c r="B59" s="21"/>
+        <v>432</v>
+      </c>
+      <c r="B59" s="20"/>
       <c r="C59" s="9" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="10" t="s">
-        <v>399</v>
-      </c>
-      <c r="B60" s="21"/>
+        <v>393</v>
+      </c>
+      <c r="B60" s="20"/>
       <c r="C60" s="9" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="10" t="s">
-        <v>439</v>
-      </c>
-      <c r="B61" s="21"/>
+        <v>433</v>
+      </c>
+      <c r="B61" s="20"/>
       <c r="C61" s="9" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="10" t="s">
-        <v>440</v>
-      </c>
-      <c r="B62" s="21"/>
+        <v>434</v>
+      </c>
+      <c r="B62" s="20"/>
       <c r="C62" s="9" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="10" t="s">
-        <v>441</v>
-      </c>
-      <c r="B63" s="21"/>
+        <v>435</v>
+      </c>
+      <c r="B63" s="20"/>
       <c r="C63" s="9" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="10" t="s">
-        <v>391</v>
-      </c>
-      <c r="B64" s="21"/>
+        <v>385</v>
+      </c>
+      <c r="B64" s="20"/>
       <c r="C64" s="9" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="10" t="s">
-        <v>359</v>
-      </c>
-      <c r="B65" s="21"/>
+        <v>353</v>
+      </c>
+      <c r="B65" s="20"/>
       <c r="C65" s="9" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="10" t="s">
-        <v>360</v>
-      </c>
-      <c r="B66" s="21"/>
+        <v>354</v>
+      </c>
+      <c r="B66" s="20"/>
       <c r="C66" s="9" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" s="10" t="s">
-        <v>361</v>
-      </c>
-      <c r="B67" s="21"/>
+        <v>355</v>
+      </c>
+      <c r="B67" s="20"/>
       <c r="C67" s="9" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" s="10" t="s">
-        <v>362</v>
-      </c>
-      <c r="B68" s="21"/>
+        <v>356</v>
+      </c>
+      <c r="B68" s="20"/>
       <c r="C68" s="9" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" s="10" t="s">
-        <v>442</v>
-      </c>
-      <c r="B69" s="21"/>
+        <v>436</v>
+      </c>
+      <c r="B69" s="20"/>
       <c r="C69" s="9" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A70" s="10" t="s">
-        <v>392</v>
-      </c>
-      <c r="B70" s="21"/>
+        <v>386</v>
+      </c>
+      <c r="B70" s="20"/>
       <c r="C70" s="9" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A71" s="10" t="s">
-        <v>363</v>
-      </c>
-      <c r="B71" s="21"/>
+        <v>357</v>
+      </c>
+      <c r="B71" s="20"/>
       <c r="C71" s="9" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="10" t="s">
-        <v>364</v>
-      </c>
-      <c r="B72" s="21"/>
+        <v>358</v>
+      </c>
+      <c r="B72" s="20"/>
       <c r="C72" s="9" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="10" t="s">
-        <v>365</v>
-      </c>
-      <c r="B73" s="21"/>
+        <v>359</v>
+      </c>
+      <c r="B73" s="20"/>
       <c r="C73" s="9" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="10" t="s">
-        <v>366</v>
-      </c>
-      <c r="B74" s="21"/>
+        <v>360</v>
+      </c>
+      <c r="B74" s="20"/>
       <c r="C74" s="9" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="10" t="s">
-        <v>367</v>
-      </c>
-      <c r="B75" s="21"/>
+        <v>361</v>
+      </c>
+      <c r="B75" s="20"/>
       <c r="C75" s="9" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" s="10" t="s">
-        <v>368</v>
-      </c>
-      <c r="B76" s="21"/>
+        <v>362</v>
+      </c>
+      <c r="B76" s="20"/>
       <c r="C76" s="9" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" s="10" t="s">
-        <v>369</v>
-      </c>
-      <c r="B77" s="21"/>
+        <v>363</v>
+      </c>
+      <c r="B77" s="20"/>
       <c r="C77" s="9" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A78" s="10" t="s">
-        <v>370</v>
-      </c>
-      <c r="B78" s="21"/>
+        <v>364</v>
+      </c>
+      <c r="B78" s="20"/>
       <c r="C78" s="9" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A79" s="10" t="s">
-        <v>371</v>
-      </c>
-      <c r="B79" s="21"/>
+        <v>365</v>
+      </c>
+      <c r="B79" s="20"/>
       <c r="C79" s="9" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" s="10" t="s">
-        <v>443</v>
-      </c>
-      <c r="B80" s="21"/>
+        <v>437</v>
+      </c>
+      <c r="B80" s="20"/>
       <c r="C80" s="9" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A81" s="10" t="s">
-        <v>372</v>
-      </c>
-      <c r="B81" s="21"/>
+        <v>366</v>
+      </c>
+      <c r="B81" s="20"/>
       <c r="C81" s="9" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A82" s="10" t="s">
-        <v>373</v>
-      </c>
-      <c r="B82" s="21"/>
+        <v>367</v>
+      </c>
+      <c r="B82" s="20"/>
       <c r="C82" s="9" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A83" s="10" t="s">
-        <v>444</v>
-      </c>
-      <c r="B83" s="21"/>
+        <v>438</v>
+      </c>
+      <c r="B83" s="20"/>
       <c r="C83" s="9" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A84" s="10" t="s">
-        <v>374</v>
-      </c>
-      <c r="B84" s="21"/>
+        <v>368</v>
+      </c>
+      <c r="B84" s="20"/>
       <c r="C84" s="9" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A85" s="10" t="s">
-        <v>375</v>
-      </c>
-      <c r="B85" s="21"/>
+        <v>369</v>
+      </c>
+      <c r="B85" s="20"/>
       <c r="C85" s="9" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A86" s="10" t="s">
-        <v>376</v>
-      </c>
-      <c r="B86" s="21"/>
+        <v>370</v>
+      </c>
+      <c r="B86" s="20"/>
       <c r="C86" s="9" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A87" s="10" t="s">
-        <v>377</v>
-      </c>
-      <c r="B87" s="21"/>
+        <v>371</v>
+      </c>
+      <c r="B87" s="20"/>
       <c r="C87" s="9" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A88" s="10" t="s">
-        <v>378</v>
-      </c>
-      <c r="B88" s="21"/>
+        <v>372</v>
+      </c>
+      <c r="B88" s="20"/>
       <c r="C88" s="9" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A89" s="10" t="s">
-        <v>445</v>
-      </c>
-      <c r="B89" s="21"/>
+        <v>439</v>
+      </c>
+      <c r="B89" s="20"/>
       <c r="C89" s="9" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" s="10" t="s">
-        <v>446</v>
-      </c>
-      <c r="B90" s="21"/>
+        <v>440</v>
+      </c>
+      <c r="B90" s="20"/>
       <c r="C90" s="9" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="10" t="s">
-        <v>447</v>
-      </c>
-      <c r="B91" s="21"/>
+        <v>441</v>
+      </c>
+      <c r="B91" s="20"/>
       <c r="C91" s="9" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A92" s="10" t="s">
-        <v>439</v>
-      </c>
-      <c r="B92" s="21"/>
+        <v>433</v>
+      </c>
+      <c r="B92" s="20"/>
       <c r="C92" s="9" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A93" s="10" t="s">
-        <v>393</v>
-      </c>
-      <c r="B93" s="21"/>
+        <v>387</v>
+      </c>
+      <c r="B93" s="20"/>
       <c r="C93" s="9" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A94" s="10" t="s">
-        <v>400</v>
-      </c>
-      <c r="B94" s="21"/>
+        <v>394</v>
+      </c>
+      <c r="B94" s="20"/>
       <c r="C94" s="9" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" s="10" t="s">
-        <v>448</v>
-      </c>
-      <c r="B95" s="21"/>
+        <v>442</v>
+      </c>
+      <c r="B95" s="20"/>
       <c r="C95" s="9" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A96" s="10" t="s">
-        <v>449</v>
-      </c>
-      <c r="B96" s="21"/>
+        <v>443</v>
+      </c>
+      <c r="B96" s="20"/>
       <c r="C96" s="9" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A97" s="10" t="s">
-        <v>379</v>
-      </c>
-      <c r="B97" s="21"/>
+        <v>373</v>
+      </c>
+      <c r="B97" s="20"/>
       <c r="C97" s="9" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A98" s="10" t="s">
-        <v>380</v>
-      </c>
-      <c r="B98" s="21"/>
+        <v>374</v>
+      </c>
+      <c r="B98" s="20"/>
       <c r="C98" s="9" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A99" s="10" t="s">
-        <v>381</v>
-      </c>
-      <c r="B99" s="21"/>
+        <v>375</v>
+      </c>
+      <c r="B99" s="20"/>
       <c r="C99" s="9" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" s="10" t="s">
-        <v>382</v>
-      </c>
-      <c r="B100" s="21"/>
+        <v>376</v>
+      </c>
+      <c r="B100" s="20"/>
       <c r="C100" s="9" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" s="10" t="s">
-        <v>383</v>
-      </c>
-      <c r="B101" s="21"/>
+        <v>377</v>
+      </c>
+      <c r="B101" s="20"/>
       <c r="C101" s="9" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A102" s="10" t="s">
-        <v>450</v>
-      </c>
-      <c r="B102" s="21"/>
+        <v>444</v>
+      </c>
+      <c r="B102" s="20"/>
       <c r="C102" s="9" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A103" s="10" t="s">
-        <v>451</v>
-      </c>
-      <c r="B103" s="21"/>
+        <v>445</v>
+      </c>
+      <c r="B103" s="20"/>
       <c r="C103" s="9" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A104" s="10" t="s">
-        <v>452</v>
-      </c>
-      <c r="B104" s="21"/>
+        <v>446</v>
+      </c>
+      <c r="B104" s="20"/>
       <c r="C104" s="9" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A105" s="10" t="s">
-        <v>453</v>
-      </c>
-      <c r="B105" s="21"/>
+        <v>447</v>
+      </c>
+      <c r="B105" s="20"/>
       <c r="C105" s="9" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A106" s="10" t="s">
-        <v>454</v>
-      </c>
-      <c r="B106" s="21"/>
+        <v>448</v>
+      </c>
+      <c r="B106" s="20"/>
       <c r="C106" s="9" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A107" s="10" t="s">
-        <v>455</v>
-      </c>
-      <c r="B107" s="21"/>
+        <v>449</v>
+      </c>
+      <c r="B107" s="20"/>
       <c r="C107" s="9" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A108" s="10" t="s">
-        <v>456</v>
-      </c>
-      <c r="B108" s="21"/>
+        <v>450</v>
+      </c>
+      <c r="B108" s="20"/>
       <c r="C108" s="9" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A109" s="10" t="s">
-        <v>401</v>
-      </c>
-      <c r="B109" s="21"/>
+        <v>395</v>
+      </c>
+      <c r="B109" s="20"/>
       <c r="C109" s="9" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A110" s="10" t="s">
-        <v>457</v>
-      </c>
-      <c r="B110" s="21"/>
+        <v>451</v>
+      </c>
+      <c r="B110" s="20"/>
       <c r="C110" s="9" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" s="10" t="s">
-        <v>458</v>
-      </c>
-      <c r="B111" s="21"/>
+        <v>452</v>
+      </c>
+      <c r="B111" s="20"/>
       <c r="C111" s="9" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A112" s="10" t="s">
-        <v>459</v>
-      </c>
-      <c r="B112" s="21"/>
+        <v>453</v>
+      </c>
+      <c r="B112" s="20"/>
       <c r="C112" s="9" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A113" s="10" t="s">
-        <v>460</v>
-      </c>
-      <c r="B113" s="21"/>
+        <v>454</v>
+      </c>
+      <c r="B113" s="20"/>
       <c r="C113" s="9" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A114" s="10" t="s">
-        <v>461</v>
-      </c>
-      <c r="B114" s="21"/>
+        <v>455</v>
+      </c>
+      <c r="B114" s="20"/>
       <c r="C114" s="9" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A115" s="10" t="s">
-        <v>402</v>
-      </c>
-      <c r="B115" s="21"/>
+        <v>396</v>
+      </c>
+      <c r="B115" s="20"/>
       <c r="C115" s="9" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A116" s="10" t="s">
-        <v>417</v>
-      </c>
-      <c r="B116" s="21"/>
+        <v>411</v>
+      </c>
+      <c r="B116" s="20"/>
       <c r="C116" s="9" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A117" s="10" t="s">
-        <v>416</v>
-      </c>
-      <c r="B117" s="21"/>
+        <v>410</v>
+      </c>
+      <c r="B117" s="20"/>
       <c r="C117" s="9" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A118" s="10" t="s">
-        <v>415</v>
-      </c>
-      <c r="B118" s="21"/>
+        <v>409</v>
+      </c>
+      <c r="B118" s="20"/>
       <c r="C118" s="9" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A119" s="10" t="s">
-        <v>403</v>
-      </c>
-      <c r="B119" s="21"/>
+        <v>397</v>
+      </c>
+      <c r="B119" s="20"/>
       <c r="C119" s="9" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A120" s="10" t="s">
-        <v>414</v>
-      </c>
-      <c r="B120" s="21"/>
+        <v>408</v>
+      </c>
+      <c r="B120" s="20"/>
       <c r="C120" s="9" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A121" s="10" t="s">
-        <v>413</v>
-      </c>
-      <c r="B121" s="21"/>
+        <v>407</v>
+      </c>
+      <c r="B121" s="20"/>
       <c r="C121" s="9" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A122" s="10" t="s">
-        <v>412</v>
-      </c>
-      <c r="B122" s="21"/>
+        <v>406</v>
+      </c>
+      <c r="B122" s="20"/>
       <c r="C122" s="9" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A123" s="10" t="s">
-        <v>411</v>
-      </c>
-      <c r="B123" s="21"/>
+        <v>405</v>
+      </c>
+      <c r="B123" s="20"/>
       <c r="C123" s="9" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A124" s="10" t="s">
-        <v>404</v>
-      </c>
-      <c r="B124" s="21"/>
+        <v>398</v>
+      </c>
+      <c r="B124" s="20"/>
       <c r="C124" s="9" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A125" s="10" t="s">
-        <v>410</v>
-      </c>
-      <c r="B125" s="21"/>
+        <v>404</v>
+      </c>
+      <c r="B125" s="20"/>
       <c r="C125" s="9" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A126" s="10" t="s">
-        <v>384</v>
-      </c>
-      <c r="B126" s="21"/>
+        <v>378</v>
+      </c>
+      <c r="B126" s="20"/>
       <c r="C126" s="9" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A127" s="10" t="s">
-        <v>385</v>
-      </c>
-      <c r="B127" s="21"/>
+        <v>379</v>
+      </c>
+      <c r="B127" s="20"/>
       <c r="C127" s="9" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A128" s="10" t="s">
-        <v>386</v>
-      </c>
-      <c r="B128" s="21"/>
+        <v>380</v>
+      </c>
+      <c r="B128" s="20"/>
       <c r="C128" s="9" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A129" s="10" t="s">
-        <v>409</v>
-      </c>
-      <c r="B129" s="21"/>
+        <v>403</v>
+      </c>
+      <c r="B129" s="20"/>
       <c r="C129" s="9" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A130" s="10" t="s">
-        <v>408</v>
-      </c>
-      <c r="B130" s="21"/>
+        <v>402</v>
+      </c>
+      <c r="B130" s="20"/>
       <c r="C130" s="9" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A131" s="10" t="s">
-        <v>407</v>
-      </c>
-      <c r="B131" s="21"/>
+        <v>401</v>
+      </c>
+      <c r="B131" s="20"/>
       <c r="C131" s="9" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A132" s="10" t="s">
-        <v>405</v>
-      </c>
-      <c r="B132" s="21"/>
+        <v>399</v>
+      </c>
+      <c r="B132" s="20"/>
       <c r="C132" s="9" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A133" s="10" t="s">
-        <v>406</v>
-      </c>
-      <c r="B133" s="21"/>
+        <v>400</v>
+      </c>
+      <c r="B133" s="20"/>
       <c r="C133" s="9" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="10" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" s="10" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" s="10" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" s="10" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" s="10" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" s="10" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
     </row>
   </sheetData>
@@ -6195,18 +6565,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1" t="s">
         <v>107</v>
-      </c>
-      <c r="B1" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -6230,94 +6600,94 @@
   <sheetData>
     <row r="1" spans="1:2" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
-        <v>650</v>
+        <v>641</v>
       </c>
       <c r="B1" s="38"/>
     </row>
     <row r="2" spans="1:2" ht="19" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
-        <v>655</v>
-      </c>
-      <c r="B2" s="30" t="s">
-        <v>656</v>
+      <c r="A2" s="30" t="s">
+        <v>646</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>647</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="31" t="s">
+        <v>629</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="31" t="s">
+        <v>630</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="31" t="s">
+        <v>631</v>
+      </c>
+      <c r="B5" s="28" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="31" t="s">
+        <v>633</v>
+      </c>
+      <c r="B6" s="28" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="31" t="s">
+        <v>632</v>
+      </c>
+      <c r="B7" s="28" t="s">
         <v>638</v>
-      </c>
-      <c r="B3" s="29" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="32" t="s">
-        <v>639</v>
-      </c>
-      <c r="B4" s="29" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="32" t="s">
-        <v>640</v>
-      </c>
-      <c r="B5" s="29" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="32" t="s">
-        <v>642</v>
-      </c>
-      <c r="B6" s="29" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="32" t="s">
-        <v>641</v>
-      </c>
-      <c r="B7" s="29" t="s">
-        <v>647</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="21" x14ac:dyDescent="0.25">
       <c r="A10" s="39" t="s">
-        <v>651</v>
+        <v>642</v>
       </c>
       <c r="B10" s="39"/>
     </row>
     <row r="11" spans="1:2" ht="19" x14ac:dyDescent="0.25">
-      <c r="A11" s="31" t="s">
-        <v>655</v>
-      </c>
-      <c r="B11" s="30" t="s">
-        <v>656</v>
+      <c r="A11" s="30" t="s">
+        <v>646</v>
+      </c>
+      <c r="B11" s="29" t="s">
+        <v>647</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="32" t="s">
-        <v>657</v>
-      </c>
-      <c r="B12" s="29" t="s">
-        <v>652</v>
+      <c r="A12" s="31" t="s">
+        <v>648</v>
+      </c>
+      <c r="B12" s="28" t="s">
+        <v>643</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="32" t="s">
-        <v>648</v>
-      </c>
-      <c r="B13" s="29" t="s">
-        <v>653</v>
+      <c r="A13" s="31" t="s">
+        <v>639</v>
+      </c>
+      <c r="B13" s="28" t="s">
+        <v>644</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="32" t="s">
-        <v>649</v>
-      </c>
-      <c r="B14" s="29" t="s">
-        <v>654</v>
+      <c r="A14" s="31" t="s">
+        <v>640</v>
+      </c>
+      <c r="B14" s="28" t="s">
+        <v>645</v>
       </c>
     </row>
   </sheetData>
@@ -6344,7 +6714,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6358,22 +6728,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="17" t="s">
         <v>38</v>
       </c>
     </row>
@@ -6388,13 +6758,13 @@
         <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E2" t="s">
         <v>22</v>
       </c>
       <c r="F2" t="s">
-        <v>613</v>
+        <v>604</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -6408,64 +6778,64 @@
         <v>36</v>
       </c>
       <c r="D3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E3" t="s">
         <v>37</v>
       </c>
       <c r="F3" t="s">
-        <v>614</v>
+        <v>605</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>658</v>
+        <v>649</v>
       </c>
       <c r="B4" t="s">
-        <v>661</v>
+        <v>652</v>
       </c>
       <c r="C4" t="s">
-        <v>664</v>
+        <v>655</v>
       </c>
       <c r="D4" t="s">
-        <v>663</v>
+        <v>654</v>
       </c>
       <c r="E4" t="s">
-        <v>668</v>
+        <v>659</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>659</v>
+        <v>650</v>
       </c>
       <c r="B5" t="s">
-        <v>662</v>
+        <v>653</v>
       </c>
       <c r="C5" t="s">
-        <v>665</v>
+        <v>656</v>
       </c>
       <c r="D5" t="s">
-        <v>663</v>
+        <v>654</v>
       </c>
       <c r="E5" t="s">
-        <v>669</v>
+        <v>660</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>667</v>
+        <v>658</v>
       </c>
       <c r="B6" t="s">
-        <v>660</v>
+        <v>651</v>
       </c>
       <c r="C6" t="s">
-        <v>666</v>
+        <v>657</v>
       </c>
       <c r="D6" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E6" t="s">
-        <v>670</v>
+        <v>661</v>
       </c>
     </row>
   </sheetData>
@@ -6475,10 +6845,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{679CED36-1B68-6F40-B862-B156999A55CA}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E2"/>
+      <selection activeCell="B9" sqref="B9:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6490,10 +6860,10 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C1" s="35"/>
       <c r="D1" s="35"/>
@@ -6501,10 +6871,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C2" s="35"/>
       <c r="D2" s="35"/>
@@ -6515,7 +6885,7 @@
         <v>28</v>
       </c>
       <c r="B3" s="37" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C3" s="37"/>
       <c r="D3" s="37"/>
@@ -6526,7 +6896,7 @@
         <v>29</v>
       </c>
       <c r="B4" s="36" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C4" s="36"/>
       <c r="D4" s="36"/>
@@ -6537,7 +6907,7 @@
         <v>30</v>
       </c>
       <c r="B5" s="36" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C5" s="36"/>
       <c r="D5" s="36"/>
@@ -6548,7 +6918,7 @@
         <v>31</v>
       </c>
       <c r="B6" s="35" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C6" s="35"/>
       <c r="D6" s="35"/>
@@ -6559,7 +6929,7 @@
         <v>33</v>
       </c>
       <c r="B7" s="35" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C7" s="35"/>
       <c r="D7" s="35"/>
@@ -6570,7 +6940,7 @@
         <v>32</v>
       </c>
       <c r="B8" s="35" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C8" s="35"/>
       <c r="D8" s="35"/>
@@ -6578,10 +6948,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
-        <v>118</v>
+        <v>713</v>
       </c>
       <c r="B9" s="35" t="s">
-        <v>118</v>
+        <v>714</v>
       </c>
       <c r="C9" s="35"/>
       <c r="D9" s="35"/>
@@ -6589,94 +6959,255 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="B10" s="35"/>
+        <v>713</v>
+      </c>
+      <c r="B10" s="35" t="s">
+        <v>715</v>
+      </c>
       <c r="C10" s="35"/>
       <c r="D10" s="35"/>
       <c r="E10" s="35"/>
     </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="13" t="s">
+        <v>717</v>
+      </c>
+      <c r="B11" s="35" t="s">
+        <v>716</v>
+      </c>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+    </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="B12" s="35" t="s">
+        <v>116</v>
+      </c>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="B13" s="35"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="C16" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="8" t="s">
+      <c r="D16" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
+      <c r="B17" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="13">
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B13:E13"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B11:E11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F32E2E6C-EC56-2C43-9AA4-39E342213E19}">
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="17.83203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="26.5" style="3" customWidth="1"/>
+    <col min="5" max="5" width="18.1640625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="50" style="3" customWidth="1"/>
+    <col min="7" max="7" width="11.1640625" style="3" customWidth="1"/>
+    <col min="8" max="9" width="17.83203125" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="18" t="s">
+        <v>389</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>460</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>726</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>493</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>727</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>723</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>724</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>728</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>732</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="3">
+        <v>123456789</v>
+      </c>
+      <c r="F2" t="s">
+        <v>604</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>729</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>731</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F3"/>
+      <c r="G3" s="3" t="s">
+        <v>733</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>735</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>736</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>737</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="3">
+        <v>234567891</v>
+      </c>
+      <c r="F4" t="s">
+        <v>605</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>738</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>739</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>740</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D7FA707-26D8-0546-9A99-D418F7F4E088}">
   <dimension ref="A1:F4"/>
   <sheetViews>
@@ -6695,23 +7226,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
-        <v>395</v>
-      </c>
-      <c r="B1" s="19" t="s">
+      <c r="A1" s="18" t="s">
+        <v>389</v>
+      </c>
+      <c r="B1" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="19" t="s">
-        <v>466</v>
-      </c>
-      <c r="D1" s="19" t="s">
+      <c r="C1" s="18" t="s">
+        <v>460</v>
+      </c>
+      <c r="D1" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="19" t="s">
-        <v>536</v>
-      </c>
-      <c r="F1" s="19" t="s">
-        <v>537</v>
+      <c r="E1" s="18" t="s">
+        <v>529</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>530</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -6719,19 +7250,19 @@
         <v>24</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -6745,13 +7276,13 @@
         <v>25</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -6762,7 +7293,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07E1D5BD-3A57-0140-9167-DAF5A3D4D9EF}">
   <dimension ref="A1:D5"/>
   <sheetViews>
@@ -6779,16 +7310,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
-        <v>395</v>
-      </c>
-      <c r="B1" s="19" t="s">
+      <c r="A1" s="18" t="s">
+        <v>389</v>
+      </c>
+      <c r="B1" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="19" t="s">
-        <v>466</v>
-      </c>
-      <c r="D1" s="19" t="s">
+      <c r="C1" s="18" t="s">
+        <v>460</v>
+      </c>
+      <c r="D1" s="18" t="s">
         <v>42</v>
       </c>
     </row>
@@ -6797,13 +7328,13 @@
         <v>26</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -6811,13 +7342,13 @@
         <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -6825,13 +7356,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -6839,13 +7370,13 @@
         <v>27</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -6853,7 +7384,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ED1B92D-F8EC-D24D-81E6-6B85449D22F0}">
   <dimension ref="A1:G5"/>
   <sheetViews>
@@ -6872,103 +7403,103 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
-        <v>465</v>
-      </c>
-      <c r="B1" s="19" t="s">
-        <v>500</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>395</v>
-      </c>
-      <c r="D1" s="19" t="s">
+      <c r="A1" s="18" t="s">
+        <v>459</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>493</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>389</v>
+      </c>
+      <c r="D1" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="19" t="s">
-        <v>466</v>
-      </c>
-      <c r="F1" s="19" t="s">
-        <v>200</v>
-      </c>
-      <c r="G1" s="19" t="s">
-        <v>501</v>
+      <c r="E1" s="18" t="s">
+        <v>460</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>494</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="C2" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="D2" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="F2" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="G2" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>505</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>510</v>
+      </c>
+      <c r="C3" t="s">
+        <v>511</v>
+      </c>
+      <c r="D3" t="s">
         <v>512</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>517</v>
-      </c>
-      <c r="C3" t="s">
-        <v>518</v>
-      </c>
-      <c r="D3" t="s">
-        <v>519</v>
-      </c>
       <c r="F3" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="G3" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>620</v>
+        <v>611</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="C4" t="s">
-        <v>621</v>
+        <v>612</v>
       </c>
       <c r="D4" t="s">
-        <v>622</v>
+        <v>613</v>
       </c>
       <c r="F4" t="s">
-        <v>623</v>
+        <v>614</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>620</v>
+        <v>611</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="C5" t="s">
-        <v>635</v>
+        <v>626</v>
       </c>
       <c r="D5" t="s">
-        <v>636</v>
+        <v>627</v>
       </c>
       <c r="F5" t="s">
-        <v>637</v>
+        <v>628</v>
       </c>
       <c r="G5" t="s">
-        <v>631</v>
+        <v>622</v>
       </c>
     </row>
   </sheetData>
@@ -6976,7 +7507,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EB40753-8F7D-3941-9F21-F336F33F75CC}">
   <dimension ref="A1:G5"/>
   <sheetViews>
@@ -6995,60 +7526,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
-        <v>395</v>
-      </c>
-      <c r="B1" s="19" t="s">
+      <c r="A1" s="18" t="s">
+        <v>389</v>
+      </c>
+      <c r="B1" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="19" t="s">
-        <v>466</v>
-      </c>
-      <c r="D1" s="19" t="s">
-        <v>502</v>
-      </c>
-      <c r="E1" s="19" t="s">
-        <v>503</v>
-      </c>
-      <c r="F1" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="G1" s="19" t="s">
-        <v>504</v>
+      <c r="C1" s="18" t="s">
+        <v>460</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>495</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>496</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="B2" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="C2" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="D2" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="E2" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="F2" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="G2" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="E3" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="F3" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="G3" t="s">
         <v>719</v>
@@ -7056,384 +7587,51 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>626</v>
+        <v>617</v>
       </c>
       <c r="B4" t="s">
-        <v>627</v>
+        <v>618</v>
       </c>
       <c r="C4" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="D4" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="E4" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="F4" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="G4" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>631</v>
+        <v>622</v>
       </c>
       <c r="B5" t="s">
-        <v>632</v>
+        <v>623</v>
       </c>
       <c r="C5" t="s">
-        <v>633</v>
+        <v>624</v>
       </c>
       <c r="D5" t="s">
-        <v>634</v>
+        <v>625</v>
       </c>
       <c r="E5" t="s">
-        <v>557</v>
+        <v>548</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G5" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{136502A0-3DDE-CC47-9DA7-EB2F3073B24B}">
-  <dimension ref="A1:K13"/>
-  <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="F5" sqref="F5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="16.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="29.5" style="3" customWidth="1"/>
-    <col min="3" max="3" width="35.83203125" style="1" customWidth="1"/>
-    <col min="4" max="9" width="12.33203125" style="1" customWidth="1"/>
-    <col min="10" max="11" width="10.83203125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>395</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>547</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>548</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>549</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>550</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>551</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>591</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="34" x14ac:dyDescent="0.2">
-      <c r="A2" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>553</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>554</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>555</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>593</v>
-      </c>
-      <c r="I2" s="28" t="s">
-        <v>592</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="34" x14ac:dyDescent="0.2">
-      <c r="A3" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>466</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>556</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>555</v>
-      </c>
-      <c r="H3" s="28" t="s">
-        <v>595</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>590</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="13"/>
-      <c r="C4" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>557</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>557</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>557</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>557</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>558</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>557</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="13"/>
-      <c r="C5" s="13" t="s">
-        <v>559</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>548</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>549</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>550</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>551</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>591</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>552</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="34" x14ac:dyDescent="0.2">
-      <c r="A6" s="13"/>
-      <c r="C6" s="13" t="s">
-        <v>561</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="28" t="s">
-        <v>594</v>
-      </c>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="13" t="s">
-        <v>562</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="13" t="s">
-        <v>563</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>607</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>545</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>612</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>611</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B13" t="s">
-        <v>603</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>604</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/docs/example_spreadsheet.xlsx
+++ b/docs/example_spreadsheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D046ED52-2FC3-EB48-B8B3-A28FB1148061}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7A3C2F65-268C-CD49-8C84-07121F5ACC10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1740" yWindow="500" windowWidth="44940" windowHeight="26040" firstSheet="11" activeTab="12" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="25120" yWindow="500" windowWidth="33600" windowHeight="19460" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="755">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1018" uniqueCount="761">
   <si>
     <t>Screening</t>
   </si>
@@ -1588,9 +1588,6 @@
     <t>The study age criterion</t>
   </si>
   <si>
-    <t>Subjects shall be between [min_age] and [max_age]</t>
-  </si>
-  <si>
     <t>02</t>
   </si>
   <si>
@@ -1600,9 +1597,6 @@
     <t>The study age criterion with error</t>
   </si>
   <si>
-    <t>Subjects shall be between [min_age] and [max_agexxx]</t>
-  </si>
-  <si>
     <t>endpointName</t>
   </si>
   <si>
@@ -1885,15 +1879,6 @@
     <t>0</t>
   </si>
   <si>
-    <t>&lt;usdm:section name="M11-title-page"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;usdm:section name="M11-inclusion"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;usdm:section name="M11-exclusion"&gt;</t>
-  </si>
-  <si>
     <t>Exclusion</t>
   </si>
   <si>
@@ -1921,33 +1906,9 @@
     <t>OE Dictionary</t>
   </si>
   <si>
-    <t>The secondary efficacy objective for this study is to evaluate the efficacy of TCZ compared with placebo in combination with SOC for the treatment of severe COVID-19 pneumonia over the age of [min_age]</t>
-  </si>
-  <si>
-    <t>&lt;usdm:section name="M11-objective-endpoints"&gt;</t>
-  </si>
-  <si>
-    <t>Berber_Dict</t>
-  </si>
-  <si>
-    <t>Dictionary for Berber Example</t>
-  </si>
-  <si>
-    <t>Berber Dictionary</t>
-  </si>
-  <si>
     <t>xxxx</t>
   </si>
   <si>
-    <t>Berber</t>
-  </si>
-  <si>
-    <t>Test for Berber</t>
-  </si>
-  <si>
-    <t>Pick up activity [xxxx]</t>
-  </si>
-  <si>
     <t>Model</t>
   </si>
   <si>
@@ -2324,6 +2285,63 @@
   </si>
   <si>
     <t>Yes</t>
+  </si>
+  <si>
+    <t>&lt;usdm:macro id="section" name="title_page" template="m11"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;usdm:macro id="section" name="objective_endpoints" template="m11"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;usdm:macro id="section" name="inclusion" template="m11"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;usdm:macro id="section" name="exclusion" template="m11"&gt;</t>
+  </si>
+  <si>
+    <t>Subjects shall be between &lt;usdm:tag name="min_age"/&gt; and &lt;usdm:tag name="max_age"/&gt;</t>
+  </si>
+  <si>
+    <t>Subjects shall be between &lt;usdm:tag name="min_age"/&gt; and &lt;usdm:tag name="max_agexxx"/&gt;</t>
+  </si>
+  <si>
+    <t>Pick up activity &lt;usdm:tag name="xxxx"/&gt;</t>
+  </si>
+  <si>
+    <t>The secondary efficacy objective for this study is to evaluate the efficacy of TCZ compared with placebo in combination with SOC for the treatment of severe COVID-19 pneumonia over the age of &lt;usdm:tag name="min_age"/&gt;</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>Example3_Dict</t>
+  </si>
+  <si>
+    <t>Example 3 Dictionary</t>
+  </si>
+  <si>
+    <t>Dictionary for Example</t>
+  </si>
+  <si>
+    <t>value_key</t>
+  </si>
+  <si>
+    <t>Missing Tag</t>
+  </si>
+  <si>
+    <t>Test for missing tag</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>Value Example</t>
+  </si>
+  <si>
+    <t>Test for value dict key</t>
+  </si>
+  <si>
+    <t>If the value is equal to &lt;usdm:tag name="value_key"/&gt;</t>
   </si>
 </sst>
 </file>
@@ -2547,10 +2565,10 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2577,9 +2595,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2617,7 +2635,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2723,7 +2741,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2865,7 +2883,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2875,8 +2893,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53AA772F-4124-4842-BA10-D27E5C5CE960}">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection sqref="A1:A14"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3108,25 +3126,25 @@
         <v>389</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>538</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>539</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>540</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>541</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>542</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>582</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>543</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="34" x14ac:dyDescent="0.2">
@@ -3143,19 +3161,19 @@
         <v>0</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>544</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>545</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>546</v>
-      </c>
       <c r="H2" s="2" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="I2" s="27" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>159</v>
@@ -3172,7 +3190,7 @@
         <v>460</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>6</v>
@@ -3181,13 +3199,13 @@
         <v>1</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="H3" s="27" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>159</v>
@@ -3199,65 +3217,65 @@
         <v>42</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="13"/>
       <c r="C5" s="13" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>539</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>540</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="H5" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="I5" s="2" t="s">
         <v>541</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>542</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>582</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>543</v>
-      </c>
       <c r="J5" s="2" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A6" s="13"/>
       <c r="C6" s="13" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="27" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
@@ -3266,7 +3284,7 @@
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="13" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>0</v>
@@ -3291,7 +3309,7 @@
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="13" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>145</v>
@@ -3310,7 +3328,7 @@
         <v>149</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -3349,10 +3367,10 @@
         <v>8</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>2</v>
@@ -3377,10 +3395,10 @@
         <v>8</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>2</v>
@@ -3395,10 +3413,10 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>2</v>
@@ -3441,184 +3459,184 @@
         <v>42</v>
       </c>
       <c r="E1" s="18" t="s">
+        <v>553</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>554</v>
+      </c>
+      <c r="G1" s="18" t="s">
         <v>555</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="H1" s="18" t="s">
         <v>556</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="I1" s="18" t="s">
         <v>557</v>
-      </c>
-      <c r="H1" s="18" t="s">
-        <v>558</v>
-      </c>
-      <c r="I1" s="18" t="s">
-        <v>559</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B2" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="E2" t="s">
+        <v>536</v>
+      </c>
+      <c r="F2" t="s">
+        <v>537</v>
+      </c>
+      <c r="G2" t="s">
+        <v>561</v>
+      </c>
+      <c r="H2" t="s">
         <v>562</v>
-      </c>
-      <c r="E2" t="s">
-        <v>538</v>
-      </c>
-      <c r="F2" t="s">
-        <v>539</v>
-      </c>
-      <c r="G2" t="s">
-        <v>563</v>
-      </c>
-      <c r="H2" t="s">
-        <v>564</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>563</v>
+      </c>
+      <c r="B3" t="s">
+        <v>564</v>
+      </c>
+      <c r="C3" t="s">
         <v>565</v>
       </c>
-      <c r="B3" t="s">
-        <v>566</v>
-      </c>
-      <c r="C3" t="s">
-        <v>567</v>
-      </c>
       <c r="D3" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="E3" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="F3" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="G3" t="s">
         <v>7</v>
       </c>
       <c r="H3" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>567</v>
+      </c>
+      <c r="B4" t="s">
+        <v>568</v>
+      </c>
+      <c r="C4" t="s">
+        <v>543</v>
+      </c>
+      <c r="D4" t="s">
         <v>569</v>
       </c>
-      <c r="B4" t="s">
+      <c r="E4" t="s">
+        <v>538</v>
+      </c>
+      <c r="F4" t="s">
+        <v>538</v>
+      </c>
+      <c r="G4" t="s">
         <v>570</v>
-      </c>
-      <c r="C4" t="s">
-        <v>545</v>
-      </c>
-      <c r="D4" t="s">
-        <v>571</v>
-      </c>
-      <c r="E4" t="s">
-        <v>540</v>
-      </c>
-      <c r="F4" t="s">
-        <v>540</v>
-      </c>
-      <c r="G4" t="s">
-        <v>572</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>571</v>
+      </c>
+      <c r="B5" t="s">
+        <v>572</v>
+      </c>
+      <c r="C5" t="s">
+        <v>544</v>
+      </c>
+      <c r="D5" t="s">
         <v>573</v>
       </c>
-      <c r="B5" t="s">
+      <c r="E5" t="s">
+        <v>539</v>
+      </c>
+      <c r="F5" t="s">
+        <v>538</v>
+      </c>
+      <c r="G5" t="s">
         <v>574</v>
       </c>
-      <c r="C5" t="s">
-        <v>546</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="H5" t="s">
+        <v>562</v>
+      </c>
+      <c r="I5" s="6" t="s">
         <v>575</v>
-      </c>
-      <c r="E5" t="s">
-        <v>541</v>
-      </c>
-      <c r="F5" t="s">
-        <v>540</v>
-      </c>
-      <c r="G5" t="s">
-        <v>576</v>
-      </c>
-      <c r="H5" t="s">
-        <v>564</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>577</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B6" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="C6" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="D6" t="s">
+        <v>573</v>
+      </c>
+      <c r="E6" t="s">
+        <v>580</v>
+      </c>
+      <c r="F6" t="s">
+        <v>538</v>
+      </c>
+      <c r="G6" t="s">
+        <v>587</v>
+      </c>
+      <c r="H6" t="s">
+        <v>562</v>
+      </c>
+      <c r="I6" s="6" t="s">
         <v>575</v>
-      </c>
-      <c r="E6" t="s">
-        <v>582</v>
-      </c>
-      <c r="F6" t="s">
-        <v>540</v>
-      </c>
-      <c r="G6" t="s">
-        <v>589</v>
-      </c>
-      <c r="H6" t="s">
-        <v>564</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>577</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>662</v>
+        <v>649</v>
       </c>
       <c r="B7" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="C7" t="s">
         <v>159</v>
       </c>
       <c r="D7" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="E7" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="F7" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="G7" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="H7" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
   </sheetData>
@@ -3657,27 +3675,27 @@
         <v>194</v>
       </c>
       <c r="E1" s="18" t="s">
-        <v>741</v>
+        <v>728</v>
       </c>
       <c r="F1" s="18" t="s">
-        <v>742</v>
+        <v>729</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>743</v>
+        <v>730</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>746</v>
+        <v>733</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>750</v>
+        <v>737</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>126</v>
@@ -3685,19 +3703,19 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>744</v>
+        <v>731</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>747</v>
+        <v>734</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>130</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>751</v>
+        <v>738</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>128</v>
@@ -3705,20 +3723,20 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>745</v>
+        <v>732</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>748</v>
+        <v>735</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>749</v>
+        <v>736</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>752</v>
+        <v>739</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
   </sheetData>
@@ -3731,7 +3749,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA8389B3-D1BB-1047-BA06-7E793B938DBA}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -3767,35 +3785,35 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="B3" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="B4" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>592</v>
+      </c>
+      <c r="B5" t="s">
         <v>594</v>
       </c>
-      <c r="B5" t="s">
-        <v>596</v>
-      </c>
       <c r="C5" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -3835,7 +3853,7 @@
         <v>460</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>753</v>
+        <v>740</v>
       </c>
       <c r="E1" s="18" t="s">
         <v>44</v>
@@ -3846,13 +3864,13 @@
         <v>63</v>
       </c>
       <c r="B2" t="s">
-        <v>665</v>
+        <v>652</v>
       </c>
       <c r="C2" t="s">
-        <v>663</v>
+        <v>650</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>754</v>
+        <v>741</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>45</v>
@@ -3863,10 +3881,10 @@
         <v>65</v>
       </c>
       <c r="B3" t="s">
-        <v>666</v>
+        <v>653</v>
       </c>
       <c r="C3" t="s">
-        <v>664</v>
+        <v>651</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>130</v>
@@ -3926,49 +3944,49 @@
         <v>44</v>
       </c>
       <c r="E1" s="18" t="s">
-        <v>667</v>
+        <v>654</v>
       </c>
       <c r="F1" s="18" t="s">
         <v>42</v>
       </c>
       <c r="G1" s="18" t="s">
-        <v>694</v>
+        <v>681</v>
       </c>
       <c r="H1" s="18" t="s">
-        <v>668</v>
+        <v>655</v>
       </c>
       <c r="I1" s="18" t="s">
-        <v>669</v>
+        <v>656</v>
       </c>
       <c r="J1" s="18" t="s">
-        <v>673</v>
+        <v>660</v>
       </c>
       <c r="K1" s="18" t="s">
-        <v>674</v>
+        <v>661</v>
       </c>
       <c r="L1" s="18" t="s">
-        <v>675</v>
+        <v>662</v>
       </c>
       <c r="M1" s="18" t="s">
-        <v>670</v>
+        <v>657</v>
       </c>
       <c r="N1" s="18" t="s">
-        <v>671</v>
+        <v>658</v>
       </c>
       <c r="O1" s="18" t="s">
-        <v>672</v>
+        <v>659</v>
       </c>
       <c r="P1" s="18" t="s">
-        <v>676</v>
+        <v>663</v>
       </c>
       <c r="Q1" s="18" t="s">
-        <v>677</v>
+        <v>664</v>
       </c>
       <c r="R1" s="18" t="s">
-        <v>678</v>
+        <v>665</v>
       </c>
       <c r="S1" s="18" t="s">
-        <v>679</v>
+        <v>666</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
@@ -3976,58 +3994,58 @@
         <v>64</v>
       </c>
       <c r="B2" t="s">
-        <v>680</v>
+        <v>667</v>
       </c>
       <c r="C2" t="s">
-        <v>681</v>
+        <v>668</v>
       </c>
       <c r="D2" t="s">
+        <v>669</v>
+      </c>
+      <c r="E2" t="s">
+        <v>672</v>
+      </c>
+      <c r="F2" s="33" t="s">
+        <v>684</v>
+      </c>
+      <c r="G2" t="s">
+        <v>670</v>
+      </c>
+      <c r="H2" t="s">
+        <v>673</v>
+      </c>
+      <c r="I2" t="s">
+        <v>671</v>
+      </c>
+      <c r="J2" t="s">
+        <v>674</v>
+      </c>
+      <c r="K2" t="s">
+        <v>675</v>
+      </c>
+      <c r="L2" t="s">
+        <v>676</v>
+      </c>
+      <c r="M2" t="s">
         <v>682</v>
       </c>
-      <c r="E2" t="s">
-        <v>685</v>
-      </c>
-      <c r="F2" s="33" t="s">
-        <v>697</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="N2" t="s">
+        <v>677</v>
+      </c>
+      <c r="O2" t="s">
         <v>683</v>
       </c>
-      <c r="H2" t="s">
-        <v>686</v>
-      </c>
-      <c r="I2" t="s">
-        <v>684</v>
-      </c>
-      <c r="J2" t="s">
-        <v>687</v>
-      </c>
-      <c r="K2" t="s">
-        <v>688</v>
-      </c>
-      <c r="L2" t="s">
-        <v>689</v>
-      </c>
-      <c r="M2" t="s">
-        <v>695</v>
-      </c>
-      <c r="N2" t="s">
-        <v>690</v>
-      </c>
-      <c r="O2" t="s">
-        <v>696</v>
-      </c>
       <c r="P2" t="s">
-        <v>691</v>
+        <v>678</v>
       </c>
       <c r="Q2" t="s">
         <v>130</v>
       </c>
       <c r="R2" t="s">
-        <v>692</v>
+        <v>679</v>
       </c>
       <c r="S2" s="32" t="s">
-        <v>693</v>
+        <v>680</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
@@ -4035,58 +4053,58 @@
         <v>66</v>
       </c>
       <c r="B3" t="s">
-        <v>698</v>
+        <v>685</v>
       </c>
       <c r="C3" t="s">
-        <v>699</v>
+        <v>686</v>
       </c>
       <c r="D3" t="s">
+        <v>669</v>
+      </c>
+      <c r="E3" t="s">
+        <v>687</v>
+      </c>
+      <c r="F3" s="33" t="s">
+        <v>684</v>
+      </c>
+      <c r="G3" t="s">
+        <v>670</v>
+      </c>
+      <c r="H3" t="s">
+        <v>688</v>
+      </c>
+      <c r="I3" t="s">
+        <v>671</v>
+      </c>
+      <c r="J3" t="s">
+        <v>689</v>
+      </c>
+      <c r="K3" t="s">
+        <v>690</v>
+      </c>
+      <c r="L3" t="s">
+        <v>691</v>
+      </c>
+      <c r="M3" t="s">
         <v>682</v>
       </c>
-      <c r="E3" t="s">
-        <v>700</v>
-      </c>
-      <c r="F3" s="33" t="s">
-        <v>697</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="N3" t="s">
+        <v>677</v>
+      </c>
+      <c r="O3" t="s">
         <v>683</v>
       </c>
-      <c r="H3" t="s">
-        <v>701</v>
-      </c>
-      <c r="I3" t="s">
-        <v>684</v>
-      </c>
-      <c r="J3" t="s">
-        <v>702</v>
-      </c>
-      <c r="K3" t="s">
-        <v>703</v>
-      </c>
-      <c r="L3" t="s">
-        <v>704</v>
-      </c>
-      <c r="M3" t="s">
-        <v>695</v>
-      </c>
-      <c r="N3" t="s">
-        <v>690</v>
-      </c>
-      <c r="O3" t="s">
-        <v>696</v>
-      </c>
       <c r="P3" t="s">
-        <v>705</v>
+        <v>692</v>
       </c>
       <c r="Q3" t="s">
         <v>130</v>
       </c>
       <c r="R3" t="s">
-        <v>692</v>
+        <v>679</v>
       </c>
       <c r="S3" s="32" t="s">
-        <v>693</v>
+        <v>680</v>
       </c>
     </row>
   </sheetData>
@@ -4116,7 +4134,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
-        <v>706</v>
+        <v>693</v>
       </c>
       <c r="B1" s="16" t="s">
         <v>389</v>
@@ -4128,24 +4146,24 @@
         <v>460</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>707</v>
+        <v>694</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>708</v>
+        <v>695</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>719</v>
+        <v>706</v>
       </c>
       <c r="H1" s="16" t="s">
         <v>48</v>
       </c>
       <c r="I1" s="34" t="s">
-        <v>722</v>
+        <v>709</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>709</v>
+        <v>696</v>
       </c>
       <c r="B2" t="s">
         <v>503</v>
@@ -4165,13 +4183,13 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>710</v>
+        <v>697</v>
       </c>
       <c r="B3" t="s">
-        <v>711</v>
+        <v>698</v>
       </c>
       <c r="G3" t="s">
-        <v>720</v>
+        <v>707</v>
       </c>
       <c r="I3" s="7" t="s">
         <v>130</v>
@@ -4179,13 +4197,13 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>710</v>
+        <v>697</v>
       </c>
       <c r="B4" t="s">
-        <v>712</v>
+        <v>699</v>
       </c>
       <c r="G4" t="s">
-        <v>721</v>
+        <v>708</v>
       </c>
       <c r="I4" s="7" t="s">
         <v>130</v>
@@ -4200,8 +4218,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B908C5D6-C6A1-4043-A49A-69C599CFBAE9}">
   <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4222,43 +4240,43 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B1" s="18" t="s">
         <v>50</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="E1" s="18" t="s">
         <v>51</v>
       </c>
       <c r="F1" s="18" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="G1" s="18" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="H1" s="18" t="s">
         <v>52</v>
       </c>
       <c r="I1" s="18" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="J1" s="18" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="K1" s="18" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="L1" s="18" t="s">
         <v>53</v>
       </c>
       <c r="M1" s="18" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="68" x14ac:dyDescent="0.2">
@@ -4266,7 +4284,7 @@
         <v>68</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C2" s="12"/>
       <c r="D2" s="12" t="s">
@@ -4280,7 +4298,7 @@
         <v>70</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="I2" s="12"/>
       <c r="J2" s="12" t="s">
@@ -4296,23 +4314,23 @@
         <v>69</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="C3" s="12"/>
       <c r="D3" s="12" t="s">
-        <v>620</v>
+        <v>749</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>58</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="G3" s="12" t="s">
         <v>71</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="I3" s="12"/>
       <c r="J3" s="12" t="s">
@@ -4334,7 +4352,7 @@
         <v>72</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="I4" s="12"/>
       <c r="J4" s="12" t="s">
@@ -4745,7 +4763,7 @@
         <v>78</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="E5" s="10" t="s">
         <v>112</v>
@@ -4757,7 +4775,7 @@
         <v>71</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
   </sheetData>
@@ -4805,13 +4823,13 @@
         <v>126</v>
       </c>
       <c r="B2" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C2" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="D2" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="E2" t="s">
         <v>127</v>
@@ -4822,13 +4840,13 @@
         <v>128</v>
       </c>
       <c r="B3" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C3" t="s">
+        <v>532</v>
+      </c>
+      <c r="D3" t="s">
         <v>534</v>
-      </c>
-      <c r="D3" t="s">
-        <v>536</v>
       </c>
       <c r="E3" t="s">
         <v>129</v>
@@ -4899,7 +4917,7 @@
       </c>
       <c r="E2" s="10"/>
       <c r="F2" s="10" t="s">
-        <v>718</v>
+        <v>705</v>
       </c>
       <c r="G2" s="10"/>
     </row>
@@ -5001,10 +5019,10 @@
         <v>42</v>
       </c>
       <c r="E1" s="18" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="F1" s="18" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="G1" s="18" t="s">
         <v>132</v>
@@ -5013,7 +5031,7 @@
         <v>133</v>
       </c>
       <c r="I1" s="24" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -5042,7 +5060,7 @@
         <v>143</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -5065,7 +5083,7 @@
         <v>141</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -5099,7 +5117,7 @@
         <v>137</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>138</v>
@@ -5111,7 +5129,7 @@
         <v>141</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -5119,10 +5137,10 @@
         <v>149</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>138</v>
@@ -5134,18 +5152,18 @@
         <v>141</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>138</v>
@@ -5157,7 +5175,7 @@
         <v>142</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>662</v>
+        <v>649</v>
       </c>
     </row>
   </sheetData>
@@ -5191,7 +5209,7 @@
         <v>153</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="D1" s="18" t="s">
         <v>132</v>
@@ -5296,7 +5314,7 @@
   <dimension ref="A1:D139"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D24" sqref="D24:D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5323,14 +5341,14 @@
     </row>
     <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="B2" s="20"/>
       <c r="C2" s="9" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>608</v>
+        <v>742</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -5406,7 +5424,7 @@
         <v>458</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>621</v>
+        <v>743</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -5524,7 +5542,7 @@
         <v>215</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>609</v>
+        <v>744</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -5536,7 +5554,7 @@
         <v>216</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>610</v>
+        <v>745</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -6600,94 +6618,94 @@
   <sheetData>
     <row r="1" spans="1:2" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
-        <v>641</v>
+        <v>628</v>
       </c>
       <c r="B1" s="38"/>
     </row>
     <row r="2" spans="1:2" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
-        <v>646</v>
+        <v>633</v>
       </c>
       <c r="B2" s="29" t="s">
-        <v>647</v>
+        <v>634</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="31" t="s">
-        <v>629</v>
+        <v>616</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>634</v>
+        <v>621</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="31" t="s">
-        <v>630</v>
+        <v>617</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>635</v>
+        <v>622</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="31" t="s">
-        <v>631</v>
+        <v>618</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>636</v>
+        <v>623</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="31" t="s">
-        <v>633</v>
+        <v>620</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>637</v>
+        <v>624</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="31" t="s">
-        <v>632</v>
+        <v>619</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>638</v>
+        <v>625</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="21" x14ac:dyDescent="0.25">
       <c r="A10" s="39" t="s">
-        <v>642</v>
+        <v>629</v>
       </c>
       <c r="B10" s="39"/>
     </row>
     <row r="11" spans="1:2" ht="19" x14ac:dyDescent="0.25">
       <c r="A11" s="30" t="s">
-        <v>646</v>
+        <v>633</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>647</v>
+        <v>634</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="31" t="s">
-        <v>648</v>
+        <v>635</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>643</v>
+        <v>630</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="31" t="s">
-        <v>639</v>
+        <v>626</v>
       </c>
       <c r="B13" s="28" t="s">
-        <v>644</v>
+        <v>631</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="31" t="s">
-        <v>640</v>
+        <v>627</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>645</v>
+        <v>632</v>
       </c>
     </row>
   </sheetData>
@@ -6764,7 +6782,7 @@
         <v>22</v>
       </c>
       <c r="F2" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -6784,58 +6802,58 @@
         <v>37</v>
       </c>
       <c r="F3" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>649</v>
+        <v>636</v>
       </c>
       <c r="B4" t="s">
-        <v>652</v>
+        <v>639</v>
       </c>
       <c r="C4" t="s">
-        <v>655</v>
+        <v>642</v>
       </c>
       <c r="D4" t="s">
-        <v>654</v>
+        <v>641</v>
       </c>
       <c r="E4" t="s">
-        <v>659</v>
+        <v>646</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>650</v>
+        <v>637</v>
       </c>
       <c r="B5" t="s">
-        <v>653</v>
+        <v>640</v>
       </c>
       <c r="C5" t="s">
-        <v>656</v>
+        <v>643</v>
       </c>
       <c r="D5" t="s">
-        <v>654</v>
+        <v>641</v>
       </c>
       <c r="E5" t="s">
-        <v>660</v>
+        <v>647</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>658</v>
+        <v>645</v>
       </c>
       <c r="B6" t="s">
-        <v>651</v>
+        <v>638</v>
       </c>
       <c r="C6" t="s">
-        <v>657</v>
+        <v>644</v>
       </c>
       <c r="D6" t="s">
         <v>114</v>
       </c>
       <c r="E6" t="s">
-        <v>661</v>
+        <v>648</v>
       </c>
     </row>
   </sheetData>
@@ -6884,34 +6902,34 @@
       <c r="A3" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="36" t="s">
         <v>115</v>
       </c>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="37" t="s">
         <v>131</v>
       </c>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="37" t="s">
         <v>101</v>
       </c>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
@@ -6948,10 +6966,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
-        <v>713</v>
+        <v>700</v>
       </c>
       <c r="B9" s="35" t="s">
-        <v>714</v>
+        <v>701</v>
       </c>
       <c r="C9" s="35"/>
       <c r="D9" s="35"/>
@@ -6959,10 +6977,10 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
-        <v>713</v>
+        <v>700</v>
       </c>
       <c r="B10" s="35" t="s">
-        <v>715</v>
+        <v>702</v>
       </c>
       <c r="C10" s="35"/>
       <c r="D10" s="35"/>
@@ -6970,10 +6988,10 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
-        <v>717</v>
+        <v>704</v>
       </c>
       <c r="B11" s="35" t="s">
-        <v>716</v>
+        <v>703</v>
       </c>
       <c r="C11" s="35"/>
       <c r="D11" s="35"/>
@@ -7064,11 +7082,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
     <mergeCell ref="B12:E12"/>
     <mergeCell ref="B13:E13"/>
     <mergeCell ref="B8:E8"/>
@@ -7077,6 +7090,11 @@
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -7113,30 +7131,30 @@
         <v>42</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>726</v>
+        <v>713</v>
       </c>
       <c r="E1" s="16" t="s">
         <v>493</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>727</v>
+        <v>714</v>
       </c>
       <c r="G1" s="18" t="s">
-        <v>723</v>
+        <v>710</v>
       </c>
       <c r="H1" s="18" t="s">
-        <v>724</v>
+        <v>711</v>
       </c>
       <c r="I1" s="18" t="s">
-        <v>725</v>
+        <v>712</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>728</v>
+        <v>715</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>732</v>
+        <v>719</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>113</v>
@@ -7148,36 +7166,36 @@
         <v>123456789</v>
       </c>
       <c r="F2" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>729</v>
+        <v>716</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>731</v>
+        <v>718</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>730</v>
+        <v>717</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F3"/>
       <c r="G3" s="3" t="s">
-        <v>733</v>
+        <v>720</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>735</v>
+        <v>722</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>734</v>
+        <v>721</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>736</v>
+        <v>723</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>737</v>
+        <v>724</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>113</v>
@@ -7189,16 +7207,16 @@
         <v>234567891</v>
       </c>
       <c r="F4" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>738</v>
+        <v>725</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>739</v>
+        <v>726</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>740</v>
+        <v>727</v>
       </c>
     </row>
   </sheetData>
@@ -7239,10 +7257,10 @@
         <v>42</v>
       </c>
       <c r="E1" s="18" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="F1" s="18" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -7386,10 +7404,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ED1B92D-F8EC-D24D-81E6-6B85449D22F0}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7400,6 +7418,7 @@
     <col min="4" max="4" width="29.5" customWidth="1"/>
     <col min="5" max="5" width="10.1640625" customWidth="1"/>
     <col min="6" max="6" width="64.83203125" customWidth="1"/>
+    <col min="7" max="7" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -7425,81 +7444,107 @@
         <v>494</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>505</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="4" t="s">
         <v>506</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="3" t="s">
         <v>507</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="F2" t="s">
+      <c r="E2" s="3"/>
+      <c r="F2" s="9" t="s">
+        <v>746</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>509</v>
       </c>
-      <c r="G2" t="s">
+      <c r="C3" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="9" t="s">
+        <v>747</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>505</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>510</v>
-      </c>
-      <c r="C3" t="s">
-        <v>511</v>
-      </c>
-      <c r="D3" t="s">
-        <v>512</v>
-      </c>
-      <c r="F3" t="s">
-        <v>513</v>
-      </c>
-      <c r="G3" t="s">
-        <v>498</v>
-      </c>
-    </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>611</v>
-      </c>
-      <c r="B4" s="6" t="s">
+      <c r="A4" s="3" t="s">
+        <v>606</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>506</v>
       </c>
-      <c r="C4" t="s">
-        <v>612</v>
-      </c>
-      <c r="D4" t="s">
-        <v>613</v>
-      </c>
-      <c r="F4" t="s">
-        <v>614</v>
-      </c>
+      <c r="C4" s="3" t="s">
+        <v>607</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>608</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3" t="s">
+        <v>609</v>
+      </c>
+      <c r="G4" s="3"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>611</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>510</v>
-      </c>
-      <c r="C5" t="s">
-        <v>626</v>
-      </c>
-      <c r="D5" t="s">
-        <v>627</v>
-      </c>
-      <c r="F5" t="s">
-        <v>628</v>
-      </c>
-      <c r="G5" t="s">
-        <v>622</v>
+      <c r="A5" s="3" t="s">
+        <v>606</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>509</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>755</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>756</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3" t="s">
+        <v>748</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>606</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>757</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>758</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>759</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3" t="s">
+        <v>760</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>751</v>
       </c>
     </row>
   </sheetData>
@@ -7509,10 +7554,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EB40753-8F7D-3941-9F21-F336F33F75CC}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7525,7 +7570,7 @@
     <col min="7" max="7" width="31.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
         <v>389</v>
       </c>
@@ -7547,8 +7592,11 @@
       <c r="G1" s="18" t="s">
         <v>497</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H1" s="18" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>498</v>
       </c>
@@ -7568,10 +7616,10 @@
         <v>503</v>
       </c>
       <c r="G2" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
         <v>504</v>
       </c>
@@ -7582,18 +7630,18 @@
         <v>503</v>
       </c>
       <c r="G3" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="B4" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="C4" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="D4" t="s">
         <v>501</v>
@@ -7605,30 +7653,38 @@
         <v>503</v>
       </c>
       <c r="G4" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>622</v>
+        <v>751</v>
       </c>
       <c r="B5" t="s">
-        <v>623</v>
+        <v>753</v>
       </c>
       <c r="C5" t="s">
-        <v>624</v>
+        <v>752</v>
       </c>
       <c r="D5" t="s">
-        <v>625</v>
+        <v>615</v>
       </c>
       <c r="E5" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G5" t="s">
         <v>460</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D6" t="s">
+        <v>754</v>
+      </c>
+      <c r="H6">
+        <v>1234</v>
       </c>
     </row>
   </sheetData>

--- a/docs/example_spreadsheet.xlsx
+++ b/docs/example_spreadsheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7A3C2F65-268C-CD49-8C84-07121F5ACC10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A9AE3EA4-13B7-8348-AB30-89379F139B90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25120" yWindow="500" windowWidth="33600" windowHeight="19460" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="45680" yWindow="500" windowWidth="33600" windowHeight="19460" firstSheet="5" activeTab="14" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1018" uniqueCount="761">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1018" uniqueCount="760">
   <si>
     <t>Screening</t>
   </si>
@@ -2077,12 +2077,6 @@
     <t xml:space="preserve"> 1 Day</t>
   </si>
   <si>
-    <t>M11: role1=role1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> M11: desig1=desig_1</t>
-  </si>
-  <si>
     <t>Admin 1</t>
   </si>
   <si>
@@ -2122,12 +2116,6 @@
     <t xml:space="preserve"> Int Label 2</t>
   </si>
   <si>
-    <t>M11: role2=role2</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> M11: desig2=desig_2</t>
-  </si>
-  <si>
     <t>Admin 2</t>
   </si>
   <si>
@@ -2342,6 +2330,15 @@
   </si>
   <si>
     <t>If the value is equal to &lt;usdm:tag name="value_key"/&gt;</t>
+  </si>
+  <si>
+    <t>Experimental Intervention</t>
+  </si>
+  <si>
+    <t>IMP</t>
+  </si>
+  <si>
+    <t>NIMP (AxMP)</t>
   </si>
 </sst>
 </file>
@@ -2893,8 +2890,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53AA772F-4124-4842-BA10-D27E5C5CE960}">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection sqref="A1:A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3675,24 +3672,24 @@
         <v>194</v>
       </c>
       <c r="E1" s="18" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="F1" s="18" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>596</v>
@@ -3703,16 +3700,16 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>130</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>596</v>
@@ -3723,16 +3720,16 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
+        <v>728</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>731</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>732</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>735</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>736</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>739</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" t="s">
@@ -3853,7 +3850,7 @@
         <v>460</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="E1" s="18" t="s">
         <v>44</v>
@@ -3870,7 +3867,7 @@
         <v>650</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>45</v>
@@ -3902,8 +3899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86117B3B-3975-3B4E-8ED4-B6979F031A31}">
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3950,7 +3947,7 @@
         <v>42</v>
       </c>
       <c r="G1" s="18" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="H1" s="18" t="s">
         <v>655</v>
@@ -4003,49 +4000,49 @@
         <v>669</v>
       </c>
       <c r="E2" t="s">
-        <v>672</v>
+        <v>757</v>
       </c>
       <c r="F2" s="33" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="G2" t="s">
         <v>670</v>
       </c>
       <c r="H2" t="s">
-        <v>673</v>
+        <v>758</v>
       </c>
       <c r="I2" t="s">
         <v>671</v>
       </c>
       <c r="J2" t="s">
+        <v>672</v>
+      </c>
+      <c r="K2" t="s">
+        <v>673</v>
+      </c>
+      <c r="L2" t="s">
         <v>674</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
+        <v>680</v>
+      </c>
+      <c r="N2" t="s">
         <v>675</v>
       </c>
-      <c r="L2" t="s">
+      <c r="O2" t="s">
+        <v>681</v>
+      </c>
+      <c r="P2" t="s">
         <v>676</v>
-      </c>
-      <c r="M2" t="s">
-        <v>682</v>
-      </c>
-      <c r="N2" t="s">
-        <v>677</v>
-      </c>
-      <c r="O2" t="s">
-        <v>683</v>
-      </c>
-      <c r="P2" t="s">
-        <v>678</v>
       </c>
       <c r="Q2" t="s">
         <v>130</v>
       </c>
       <c r="R2" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="S2" s="32" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
@@ -4053,58 +4050,58 @@
         <v>66</v>
       </c>
       <c r="B3" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="C3" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="D3" t="s">
         <v>669</v>
       </c>
       <c r="E3" t="s">
-        <v>687</v>
+        <v>25</v>
       </c>
       <c r="F3" s="33" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="G3" t="s">
         <v>670</v>
       </c>
       <c r="H3" t="s">
-        <v>688</v>
+        <v>759</v>
       </c>
       <c r="I3" t="s">
         <v>671</v>
       </c>
       <c r="J3" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="K3" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="L3" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="M3" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="N3" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="O3" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="P3" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="Q3" t="s">
         <v>130</v>
       </c>
       <c r="R3" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="S3" s="32" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
     </row>
   </sheetData>
@@ -4134,7 +4131,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="B1" s="16" t="s">
         <v>389</v>
@@ -4146,24 +4143,24 @@
         <v>460</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="H1" s="16" t="s">
         <v>48</v>
       </c>
       <c r="I1" s="34" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="B2" t="s">
         <v>503</v>
@@ -4183,13 +4180,13 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="B3" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="G3" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="I3" s="7" t="s">
         <v>130</v>
@@ -4197,13 +4194,13 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="B4" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="G4" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="I4" s="7" t="s">
         <v>130</v>
@@ -4318,7 +4315,7 @@
       </c>
       <c r="C3" s="12"/>
       <c r="D3" s="12" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>58</v>
@@ -4917,7 +4914,7 @@
       </c>
       <c r="E2" s="10"/>
       <c r="F2" s="10" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="G2" s="10"/>
     </row>
@@ -5348,7 +5345,7 @@
         <v>604</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -5424,7 +5421,7 @@
         <v>458</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -5542,7 +5539,7 @@
         <v>215</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -5554,7 +5551,7 @@
         <v>216</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -6966,10 +6963,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="B9" s="35" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="C9" s="35"/>
       <c r="D9" s="35"/>
@@ -6977,10 +6974,10 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="B10" s="35" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="C10" s="35"/>
       <c r="D10" s="35"/>
@@ -6988,10 +6985,10 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="B11" s="35" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="C11" s="35"/>
       <c r="D11" s="35"/>
@@ -7131,30 +7128,30 @@
         <v>42</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="E1" s="16" t="s">
         <v>493</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="G1" s="18" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="H1" s="18" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="I1" s="18" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
+        <v>711</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>715</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>719</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>113</v>
@@ -7169,33 +7166,33 @@
         <v>602</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F3"/>
       <c r="G3" s="3" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>113</v>
@@ -7210,13 +7207,13 @@
         <v>603</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
     </row>
   </sheetData>
@@ -7459,7 +7456,7 @@
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="9" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>498</v>
@@ -7480,7 +7477,7 @@
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="9" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>498</v>
@@ -7513,17 +7510,17 @@
         <v>509</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -7531,20 +7528,20 @@
         <v>606</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
     </row>
   </sheetData>
@@ -7593,7 +7590,7 @@
         <v>497</v>
       </c>
       <c r="H1" s="18" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -7616,7 +7613,7 @@
         <v>503</v>
       </c>
       <c r="G2" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -7630,7 +7627,7 @@
         <v>503</v>
       </c>
       <c r="G3" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -7653,18 +7650,18 @@
         <v>503</v>
       </c>
       <c r="G4" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="B5" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="C5" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="D5" t="s">
         <v>615</v>
@@ -7681,7 +7678,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D6" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="H6">
         <v>1234</v>
